--- a/raw_data/20200818_saline/20200818_Sensor3_Test_74.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_74.xlsx
@@ -1,673 +1,1089 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0551D-3475-4E6D-B475-4EAFBB842316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>66253.436268</v>
+        <v>66253.436268000005</v>
       </c>
       <c r="B2" s="1">
-        <v>18.403732</v>
+        <v>18.403732000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1144.770000</v>
+        <v>1144.77</v>
       </c>
       <c r="D2" s="1">
-        <v>-261.216000</v>
+        <v>-261.21600000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>66264.147341</v>
+        <v>66264.147341000004</v>
       </c>
       <c r="G2" s="1">
-        <v>18.406708</v>
+        <v>18.406707999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1167.600000</v>
+        <v>1167.5999999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-220.505000</v>
+        <v>-220.505</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>66275.164478</v>
+        <v>66275.164478000006</v>
       </c>
       <c r="L2" s="1">
         <v>18.409768</v>
       </c>
       <c r="M2" s="1">
-        <v>1195.670000</v>
+        <v>1195.67</v>
       </c>
       <c r="N2" s="1">
-        <v>-153.127000</v>
+        <v>-153.12700000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>66285.627586</v>
+        <v>66285.627586000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>18.412674</v>
+        <v>18.412673999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1204.050000</v>
+        <v>1204.05</v>
       </c>
       <c r="S2" s="1">
-        <v>-130.544000</v>
+        <v>-130.54400000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>66296.218695</v>
+        <v>66296.218695000003</v>
       </c>
       <c r="V2" s="1">
         <v>18.415616</v>
       </c>
       <c r="W2" s="1">
-        <v>1211.520000</v>
+        <v>1211.52</v>
       </c>
       <c r="X2" s="1">
-        <v>-109.121000</v>
+        <v>-109.121</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>66306.652998</v>
+        <v>66306.652998000005</v>
       </c>
       <c r="AA2" s="1">
-        <v>18.418515</v>
+        <v>18.418514999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1219.260000</v>
+        <v>1219.26</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.669100</v>
+        <v>-91.6691</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>66317.208391</v>
+        <v>66317.208390999993</v>
       </c>
       <c r="AF2" s="1">
-        <v>18.421447</v>
+        <v>18.421447000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1224.020000</v>
+        <v>1224.02</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.957800</v>
+        <v>-86.957800000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>66327.971050</v>
+        <v>66327.971049999993</v>
       </c>
       <c r="AK2" s="1">
         <v>18.424436</v>
       </c>
       <c r="AL2" s="1">
-        <v>1231.080000</v>
+        <v>1231.08</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.168800</v>
+        <v>-90.168800000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>66338.524922</v>
+        <v>66338.524921999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>18.427368</v>
+        <v>18.427368000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1239.040000</v>
+        <v>1239.04</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.067000</v>
+        <v>-102.06699999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>66349.223134</v>
       </c>
       <c r="AU2" s="1">
-        <v>18.430340</v>
+        <v>18.430340000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1249.010000</v>
+        <v>1249.01</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.473000</v>
+        <v>-121.473</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>66359.944158</v>
+        <v>66359.944157999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>18.433318</v>
       </c>
       <c r="BA2" s="1">
-        <v>1257.520000</v>
+        <v>1257.52</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.066000</v>
+        <v>-139.066</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>66370.559040</v>
+        <v>66370.559039999993</v>
       </c>
       <c r="BE2" s="1">
         <v>18.436266</v>
       </c>
       <c r="BF2" s="1">
-        <v>1298.040000</v>
+        <v>1298.04</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.569000</v>
+        <v>-221.56899999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>66381.617841</v>
+        <v>66381.617840999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>18.439338</v>
+        <v>18.439337999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1368.910000</v>
+        <v>1368.91</v>
       </c>
       <c r="BL2" s="1">
-        <v>-358.520000</v>
+        <v>-358.52</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>66392.730958</v>
@@ -676,90 +1092,90 @@
         <v>18.442425</v>
       </c>
       <c r="BP2" s="1">
-        <v>1485.720000</v>
+        <v>1485.72</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.099000</v>
+        <v>-580.09900000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>66403.796492</v>
+        <v>66403.796491999994</v>
       </c>
       <c r="BT2" s="1">
-        <v>18.445499</v>
+        <v>18.445499000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>1619.610000</v>
+        <v>1619.61</v>
       </c>
       <c r="BV2" s="1">
-        <v>-828.268000</v>
+        <v>-828.26800000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>66414.585473</v>
+        <v>66414.585472999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>18.448496</v>
+        <v>18.448495999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1774.160000</v>
+        <v>1774.16</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1097.600000</v>
+        <v>-1097.5999999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>66425.484521</v>
+        <v>66425.484521000006</v>
       </c>
       <c r="CD2" s="1">
-        <v>18.451523</v>
+        <v>18.451523000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>2192.730000</v>
+        <v>2192.73</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1746.340000</v>
+        <v>-1746.34</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>66253.787404</v>
+        <v>66253.787404000002</v>
       </c>
       <c r="B3" s="1">
-        <v>18.403830</v>
+        <v>18.403829999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1144.920000</v>
+        <v>1144.92</v>
       </c>
       <c r="D3" s="1">
-        <v>-261.127000</v>
+        <v>-261.12700000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>66264.873485</v>
+        <v>66264.873485000004</v>
       </c>
       <c r="G3" s="1">
-        <v>18.406909</v>
+        <v>18.406908999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1167.770000</v>
+        <v>1167.77</v>
       </c>
       <c r="I3" s="1">
-        <v>-219.885000</v>
+        <v>-219.88499999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>66275.513691</v>
@@ -768,1071 +1184,1071 @@
         <v>18.409865</v>
       </c>
       <c r="M3" s="1">
-        <v>1195.950000</v>
+        <v>1195.95</v>
       </c>
       <c r="N3" s="1">
-        <v>-152.687000</v>
+        <v>-152.68700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>66286.009008</v>
+        <v>66286.009007999994</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.412780</v>
+        <v>18.412780000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1204.060000</v>
+        <v>1204.06</v>
       </c>
       <c r="S3" s="1">
-        <v>-130.566000</v>
+        <v>-130.566</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>66296.576808</v>
+        <v>66296.576807999998</v>
       </c>
       <c r="V3" s="1">
         <v>18.415716</v>
       </c>
       <c r="W3" s="1">
-        <v>1211.610000</v>
+        <v>1211.6099999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-109.324000</v>
+        <v>-109.324</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>66307.005223</v>
       </c>
       <c r="AA3" s="1">
-        <v>18.418613</v>
+        <v>18.418613000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1219.320000</v>
+        <v>1219.32</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.662600</v>
+        <v>-91.662599999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>66317.903751</v>
+        <v>66317.903751000005</v>
       </c>
       <c r="AF3" s="1">
-        <v>18.421640</v>
+        <v>18.42164</v>
       </c>
       <c r="AG3" s="1">
-        <v>1224.100000</v>
+        <v>1224.0999999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.968600</v>
+        <v>-86.968599999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>66328.375785</v>
+        <v>66328.375784999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>18.424549</v>
+        <v>18.424548999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1231.070000</v>
+        <v>1231.07</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.150800</v>
+        <v>-90.150800000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>66338.961440</v>
+        <v>66338.961439999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>18.427489</v>
+        <v>18.427489000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1239.030000</v>
+        <v>1239.03</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.089000</v>
+        <v>-102.089</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>66349.593149</v>
+        <v>66349.593148999993</v>
       </c>
       <c r="AU3" s="1">
         <v>18.430443</v>
       </c>
       <c r="AV3" s="1">
-        <v>1249.040000</v>
+        <v>1249.04</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.482000</v>
+        <v>-121.482</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>66360.332030</v>
+        <v>66360.332030000005</v>
       </c>
       <c r="AZ3" s="1">
-        <v>18.433426</v>
+        <v>18.433426000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1257.500000</v>
+        <v>1257.5</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.049000</v>
+        <v>-139.04900000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>66370.940992</v>
+        <v>66370.940992000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>18.436372</v>
+        <v>18.436371999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1298.040000</v>
+        <v>1298.04</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.555000</v>
+        <v>-221.55500000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>66382.032993</v>
+        <v>66382.032993000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>18.439454</v>
+        <v>18.439454000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1368.900000</v>
+        <v>1368.9</v>
       </c>
       <c r="BL3" s="1">
-        <v>-358.540000</v>
+        <v>-358.54</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>66393.565010</v>
+        <v>66393.565010000006</v>
       </c>
       <c r="BO3" s="1">
-        <v>18.442657</v>
+        <v>18.442657000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1485.700000</v>
+        <v>1485.7</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.058000</v>
+        <v>-580.05799999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>66403.938804</v>
+        <v>66403.938804000005</v>
       </c>
       <c r="BT3" s="1">
         <v>18.445539</v>
       </c>
       <c r="BU3" s="1">
-        <v>1619.710000</v>
+        <v>1619.71</v>
       </c>
       <c r="BV3" s="1">
-        <v>-828.213000</v>
+        <v>-828.21299999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>66415.065557</v>
+        <v>66415.065556999994</v>
       </c>
       <c r="BY3" s="1">
         <v>18.448629</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1774.340000</v>
+        <v>1774.34</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1097.660000</v>
+        <v>-1097.6600000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>66426.080215</v>
+        <v>66426.080214999994</v>
       </c>
       <c r="CD3" s="1">
-        <v>18.451689</v>
+        <v>18.451688999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>2195.020000</v>
+        <v>2195.02</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1746.620000</v>
+        <v>-1746.62</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>66254.470890</v>
+        <v>66254.470889999997</v>
       </c>
       <c r="B4" s="1">
-        <v>18.404020</v>
+        <v>18.404019999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1144.720000</v>
+        <v>1144.72</v>
       </c>
       <c r="D4" s="1">
-        <v>-261.402000</v>
+        <v>-261.40199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>66265.217707</v>
+        <v>66265.217707000003</v>
       </c>
       <c r="G4" s="1">
-        <v>18.407005</v>
+        <v>18.407005000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1167.240000</v>
+        <v>1167.24</v>
       </c>
       <c r="I4" s="1">
-        <v>-219.788000</v>
+        <v>-219.78800000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>66275.860861</v>
+        <v>66275.860860999994</v>
       </c>
       <c r="L4" s="1">
-        <v>18.409961</v>
+        <v>18.409960999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1196.010000</v>
+        <v>1196.01</v>
       </c>
       <c r="N4" s="1">
-        <v>-153.003000</v>
+        <v>-153.00299999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>66286.352736</v>
+        <v>66286.352736000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>18.412876</v>
+        <v>18.412876000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1204.000000</v>
+        <v>1204</v>
       </c>
       <c r="S4" s="1">
-        <v>-130.547000</v>
+        <v>-130.547</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>66297.242401</v>
+        <v>66297.242400999996</v>
       </c>
       <c r="V4" s="1">
-        <v>18.415901</v>
+        <v>18.415901000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>1211.620000</v>
+        <v>1211.6199999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-109.383000</v>
+        <v>-109.383</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>66307.696579</v>
+        <v>66307.696578999996</v>
       </c>
       <c r="AA4" s="1">
-        <v>18.418805</v>
+        <v>18.418804999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1219.190000</v>
+        <v>1219.19</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.710200</v>
+        <v>-91.7102</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>66318.278727</v>
+        <v>66318.278726999997</v>
       </c>
       <c r="AF4" s="1">
         <v>18.421744</v>
       </c>
       <c r="AG4" s="1">
-        <v>1224.080000</v>
+        <v>1224.08</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.954600</v>
+        <v>-86.954599999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>66328.720504</v>
+        <v>66328.720503999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>18.424645</v>
+        <v>18.424645000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1231.090000</v>
+        <v>1231.0899999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.178900</v>
+        <v>-90.178899999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>66339.323978</v>
       </c>
       <c r="AP4" s="1">
-        <v>18.427590</v>
+        <v>18.427589999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1239.040000</v>
+        <v>1239.04</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.055000</v>
+        <v>-102.05500000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>66349.955227</v>
+        <v>66349.955226999999</v>
       </c>
       <c r="AU4" s="1">
         <v>18.430543</v>
       </c>
       <c r="AV4" s="1">
-        <v>1249.020000</v>
+        <v>1249.02</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.475000</v>
+        <v>-121.47499999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>66360.754127</v>
+        <v>66360.754126999993</v>
       </c>
       <c r="AZ4" s="1">
         <v>18.433543</v>
       </c>
       <c r="BA4" s="1">
-        <v>1257.520000</v>
+        <v>1257.52</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.057000</v>
+        <v>-139.05699999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>66371.362065</v>
+        <v>66371.362064999994</v>
       </c>
       <c r="BE4" s="1">
-        <v>18.436489</v>
+        <v>18.436489000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1298.040000</v>
+        <v>1298.04</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.577000</v>
+        <v>-221.577</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>66382.398544</v>
+        <v>66382.398543999996</v>
       </c>
       <c r="BJ4" s="1">
-        <v>18.439555</v>
+        <v>18.439554999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1368.920000</v>
+        <v>1368.92</v>
       </c>
       <c r="BL4" s="1">
-        <v>-358.541000</v>
+        <v>-358.541</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>66393.983602</v>
+        <v>66393.983601999993</v>
       </c>
       <c r="BO4" s="1">
-        <v>18.442773</v>
+        <v>18.442772999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1485.680000</v>
+        <v>1485.68</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.055000</v>
+        <v>-580.05499999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>66404.349492</v>
+        <v>66404.349491999994</v>
       </c>
       <c r="BT4" s="1">
         <v>18.445653</v>
       </c>
       <c r="BU4" s="1">
-        <v>1619.840000</v>
+        <v>1619.84</v>
       </c>
       <c r="BV4" s="1">
-        <v>-828.222000</v>
+        <v>-828.22199999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>66415.520426</v>
+        <v>66415.520426000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>18.448756</v>
+        <v>18.448755999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1774.230000</v>
+        <v>1774.23</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1097.560000</v>
+        <v>-1097.56</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>66426.655607</v>
+        <v>66426.655606999993</v>
       </c>
       <c r="CD4" s="1">
-        <v>18.451849</v>
+        <v>18.451848999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2192.940000</v>
+        <v>2192.94</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1746.860000</v>
+        <v>-1746.86</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>66254.827018</v>
+        <v>66254.827017999996</v>
       </c>
       <c r="B5" s="1">
-        <v>18.404119</v>
+        <v>18.404119000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1144.370000</v>
+        <v>1144.3699999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-261.322000</v>
+        <v>-261.322</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>66265.560443</v>
+        <v>66265.560442999995</v>
       </c>
       <c r="G5" s="1">
-        <v>18.407100</v>
+        <v>18.4071</v>
       </c>
       <c r="H5" s="1">
-        <v>1166.350000</v>
+        <v>1166.3499999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-219.821000</v>
+        <v>-219.821</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>66276.512619</v>
+        <v>66276.512619000001</v>
       </c>
       <c r="L5" s="1">
         <v>18.410142</v>
       </c>
       <c r="M5" s="1">
-        <v>1195.830000</v>
+        <v>1195.83</v>
       </c>
       <c r="N5" s="1">
-        <v>-152.971000</v>
+        <v>-152.971</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>66287.008980</v>
+        <v>66287.008979999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>18.413058</v>
+        <v>18.413057999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1204.030000</v>
+        <v>1204.03</v>
       </c>
       <c r="S5" s="1">
-        <v>-130.462000</v>
+        <v>-130.46199999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>66297.607953</v>
+        <v>66297.607952999999</v>
       </c>
       <c r="V5" s="1">
-        <v>18.416002</v>
+        <v>18.416001999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1211.610000</v>
+        <v>1211.6099999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-109.117000</v>
+        <v>-109.117</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>66308.051219</v>
+        <v>66308.051219000001</v>
       </c>
       <c r="AA5" s="1">
         <v>18.418903</v>
       </c>
       <c r="AB5" s="1">
-        <v>1219.290000</v>
+        <v>1219.29</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.758100</v>
+        <v>-91.758099999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>66318.621957</v>
+        <v>66318.621956999996</v>
       </c>
       <c r="AF5" s="1">
-        <v>18.421839</v>
+        <v>18.421838999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1223.860000</v>
+        <v>1223.8599999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.969600</v>
+        <v>-86.9696</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>66329.069193</v>
+        <v>66329.069193000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>18.424741</v>
+        <v>18.424741000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1231.080000</v>
+        <v>1231.08</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.167700</v>
+        <v>-90.167699999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>66339.683577</v>
+        <v>66339.683577000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>18.427690</v>
+        <v>18.427689999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1239.020000</v>
+        <v>1239.02</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.091000</v>
+        <v>-102.09099999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>66350.391244</v>
+        <v>66350.391243999999</v>
       </c>
       <c r="AU5" s="1">
         <v>18.430664</v>
       </c>
       <c r="AV5" s="1">
-        <v>1249.030000</v>
+        <v>1249.03</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.450000</v>
+        <v>-121.45</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>66361.048285</v>
+        <v>66361.048284999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>18.433625</v>
+        <v>18.433624999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1257.510000</v>
+        <v>1257.51</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.052000</v>
+        <v>-139.05199999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>66371.664127</v>
+        <v>66371.664126999996</v>
       </c>
       <c r="BE5" s="1">
-        <v>18.436573</v>
+        <v>18.436572999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1298.010000</v>
+        <v>1298.01</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.568000</v>
+        <v>-221.56800000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>66382.773056</v>
+        <v>66382.773056000005</v>
       </c>
       <c r="BJ5" s="1">
-        <v>18.439659</v>
+        <v>18.439658999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1368.910000</v>
+        <v>1368.91</v>
       </c>
       <c r="BL5" s="1">
-        <v>-358.555000</v>
+        <v>-358.55500000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>66394.380898</v>
+        <v>66394.380898000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>18.442884</v>
+        <v>18.442883999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1485.660000</v>
+        <v>1485.66</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-580.092000</v>
+        <v>-580.09199999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>66404.774578</v>
+        <v>66404.774577999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>18.445771</v>
+        <v>18.445771000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1619.900000</v>
+        <v>1619.9</v>
       </c>
       <c r="BV5" s="1">
-        <v>-828.122000</v>
+        <v>-828.12199999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>66415.941032</v>
+        <v>66415.941032000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>18.448873</v>
+        <v>18.448872999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1774.190000</v>
+        <v>1774.19</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1097.610000</v>
+        <v>-1097.6099999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>66427.156533</v>
+        <v>66427.156533000001</v>
       </c>
       <c r="CD5" s="1">
         <v>18.451988</v>
       </c>
       <c r="CE5" s="1">
-        <v>2193.040000</v>
+        <v>2193.04</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1747.130000</v>
+        <v>-1747.13</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>66255.164297</v>
+        <v>66255.164296999996</v>
       </c>
       <c r="B6" s="1">
-        <v>18.404212</v>
+        <v>18.404212000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1144.510000</v>
+        <v>1144.51</v>
       </c>
       <c r="D6" s="1">
-        <v>-261.366000</v>
+        <v>-261.36599999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>66266.237019</v>
+        <v>66266.237018999993</v>
       </c>
       <c r="G6" s="1">
-        <v>18.407288</v>
+        <v>18.407288000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1166.360000</v>
+        <v>1166.3599999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-220.115000</v>
+        <v>-220.11500000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>66276.894566</v>
+        <v>66276.894566000003</v>
       </c>
       <c r="L6" s="1">
-        <v>18.410248</v>
+        <v>18.410247999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1195.870000</v>
+        <v>1195.8699999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-153.027000</v>
+        <v>-153.02699999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>66287.402768</v>
       </c>
       <c r="Q6" s="1">
-        <v>18.413167</v>
+        <v>18.413167000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1204.000000</v>
+        <v>1204</v>
       </c>
       <c r="S6" s="1">
-        <v>-130.501000</v>
+        <v>-130.501</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>66297.953168</v>
+        <v>66297.953168000007</v>
       </c>
       <c r="V6" s="1">
-        <v>18.416098</v>
+        <v>18.416098000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>1211.510000</v>
+        <v>1211.51</v>
       </c>
       <c r="X6" s="1">
-        <v>-109.229000</v>
+        <v>-109.229</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>66308.402387</v>
+        <v>66308.402386999995</v>
       </c>
       <c r="AA6" s="1">
-        <v>18.419001</v>
+        <v>18.419001000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1219.240000</v>
+        <v>1219.24</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.813300</v>
+        <v>-91.813299999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>66318.960724</v>
+        <v>66318.960724000004</v>
       </c>
       <c r="AF6" s="1">
         <v>18.421934</v>
       </c>
       <c r="AG6" s="1">
-        <v>1224.130000</v>
+        <v>1224.1300000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-87.107400</v>
+        <v>-87.107399999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>66329.491784</v>
+        <v>66329.491783999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>18.424859</v>
+        <v>18.424859000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1231.100000</v>
+        <v>1231.0999999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.174800</v>
+        <v>-90.174800000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>66340.112120</v>
+        <v>66340.112120000005</v>
       </c>
       <c r="AP6" s="1">
         <v>18.427809</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1239.040000</v>
+        <v>1239.04</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.089000</v>
+        <v>-102.089</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>66350.684350</v>
+        <v>66350.684349999996</v>
       </c>
       <c r="AU6" s="1">
-        <v>18.430746</v>
+        <v>18.430745999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1249.040000</v>
+        <v>1249.04</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.450000</v>
+        <v>-121.45</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>66361.408874</v>
+        <v>66361.408874000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>18.433725</v>
+        <v>18.433724999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1257.510000</v>
+        <v>1257.51</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.091000</v>
+        <v>-139.09100000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>66372.023232</v>
+        <v>66372.023232000007</v>
       </c>
       <c r="BE6" s="1">
-        <v>18.436673</v>
+        <v>18.436672999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1298.030000</v>
+        <v>1298.03</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.580000</v>
+        <v>-221.58</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>66383.148000</v>
+        <v>66383.148000000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.439763</v>
+        <v>18.439762999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1368.880000</v>
+        <v>1368.88</v>
       </c>
       <c r="BL6" s="1">
-        <v>-358.528000</v>
+        <v>-358.52800000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>66394.804017</v>
+        <v>66394.804017000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>18.443001</v>
+        <v>18.443000999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1485.670000</v>
+        <v>1485.67</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.085000</v>
+        <v>-580.08500000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>66405.189747</v>
+        <v>66405.189746999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.445886</v>
+        <v>18.445886000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1619.950000</v>
+        <v>1619.95</v>
       </c>
       <c r="BV6" s="1">
-        <v>-828.172000</v>
+        <v>-828.17200000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>66416.363588</v>
+        <v>66416.363587999993</v>
       </c>
       <c r="BY6" s="1">
-        <v>18.448990</v>
+        <v>18.448989999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1774.250000</v>
+        <v>1774.25</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1097.600000</v>
+        <v>-1097.5999999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>66427.675350</v>
+        <v>66427.675350000005</v>
       </c>
       <c r="CD6" s="1">
-        <v>18.452132</v>
+        <v>18.452131999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2194.810000</v>
+        <v>2194.81</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1746.780000</v>
+        <v>-1746.78</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>66255.828937</v>
+        <v>66255.828936999998</v>
       </c>
       <c r="B7" s="1">
-        <v>18.404397</v>
+        <v>18.404396999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1144.680000</v>
+        <v>1144.68</v>
       </c>
       <c r="D7" s="1">
-        <v>-261.619000</v>
+        <v>-261.61900000000003</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>66266.593610</v>
+        <v>66266.593609999996</v>
       </c>
       <c r="G7" s="1">
         <v>18.407387</v>
       </c>
       <c r="H7" s="1">
-        <v>1166.970000</v>
+        <v>1166.97</v>
       </c>
       <c r="I7" s="1">
-        <v>-218.669000</v>
+        <v>-218.66900000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>66277.241293</v>
+        <v>66277.241292999999</v>
       </c>
       <c r="L7" s="1">
         <v>18.410345</v>
       </c>
       <c r="M7" s="1">
-        <v>1196.120000</v>
+        <v>1196.1199999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-152.919000</v>
+        <v>-152.91900000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>66287.750993</v>
+        <v>66287.750992999994</v>
       </c>
       <c r="Q7" s="1">
-        <v>18.413264</v>
+        <v>18.413264000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>1204.060000</v>
+        <v>1204.06</v>
       </c>
       <c r="S7" s="1">
-        <v>-130.474000</v>
+        <v>-130.47399999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>66298.299871</v>
+        <v>66298.299870999996</v>
       </c>
       <c r="V7" s="1">
-        <v>18.416194</v>
+        <v>18.416194000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1211.610000</v>
+        <v>1211.6099999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-109.207000</v>
+        <v>-109.20699999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>66308.821012</v>
@@ -1841,210 +2257,210 @@
         <v>18.419117</v>
       </c>
       <c r="AB7" s="1">
-        <v>1219.230000</v>
+        <v>1219.23</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.626700</v>
+        <v>-91.6267</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>66319.391284</v>
+        <v>66319.391283999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>18.422053</v>
+        <v>18.422052999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1223.800000</v>
+        <v>1223.8</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.939400</v>
+        <v>-86.939400000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>66329.769544</v>
+        <v>66329.769543999995</v>
       </c>
       <c r="AK7" s="1">
-        <v>18.424936</v>
+        <v>18.424935999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1231.080000</v>
+        <v>1231.08</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.141500</v>
+        <v>-90.141499999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>66340.404760</v>
+        <v>66340.404760000005</v>
       </c>
       <c r="AP7" s="1">
-        <v>18.427890</v>
+        <v>18.427890000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1239.050000</v>
+        <v>1239.05</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.078000</v>
+        <v>-102.078</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>66351.050412</v>
+        <v>66351.050411999997</v>
       </c>
       <c r="AU7" s="1">
         <v>18.430847</v>
       </c>
       <c r="AV7" s="1">
-        <v>1249.030000</v>
+        <v>1249.03</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.466000</v>
+        <v>-121.46599999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>66361.766956</v>
+        <v>66361.766956000007</v>
       </c>
       <c r="AZ7" s="1">
-        <v>18.433824</v>
+        <v>18.433824000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1257.490000</v>
+        <v>1257.49</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.065000</v>
+        <v>-139.065</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>66372.383854</v>
       </c>
       <c r="BE7" s="1">
-        <v>18.436773</v>
+        <v>18.436772999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1298.060000</v>
+        <v>1298.06</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.554000</v>
+        <v>-221.554</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>66383.921295</v>
+        <v>66383.921294999993</v>
       </c>
       <c r="BJ7" s="1">
         <v>18.439978</v>
       </c>
       <c r="BK7" s="1">
-        <v>1368.920000</v>
+        <v>1368.92</v>
       </c>
       <c r="BL7" s="1">
-        <v>-358.537000</v>
+        <v>-358.53699999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>66395.200322</v>
+        <v>66395.200322000004</v>
       </c>
       <c r="BO7" s="1">
-        <v>18.443111</v>
+        <v>18.443110999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1485.710000</v>
+        <v>1485.71</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.123000</v>
+        <v>-580.12300000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>66405.604898</v>
+        <v>66405.604898000005</v>
       </c>
       <c r="BT7" s="1">
-        <v>18.446001</v>
+        <v>18.446000999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1620.080000</v>
+        <v>1620.08</v>
       </c>
       <c r="BV7" s="1">
-        <v>-828.095000</v>
+        <v>-828.09500000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>66416.789652</v>
+        <v>66416.789652000007</v>
       </c>
       <c r="BY7" s="1">
-        <v>18.449108</v>
+        <v>18.449107999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1774.260000</v>
+        <v>1774.26</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1097.740000</v>
+        <v>-1097.74</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>66428.500196</v>
+        <v>66428.500195999994</v>
       </c>
       <c r="CD7" s="1">
         <v>18.452361</v>
       </c>
       <c r="CE7" s="1">
-        <v>2194.240000</v>
+        <v>2194.2399999999998</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1745.090000</v>
+        <v>-1745.09</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>66256.186055</v>
+        <v>66256.186054999998</v>
       </c>
       <c r="B8" s="1">
-        <v>18.404496</v>
+        <v>18.404496000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1144.520000</v>
+        <v>1144.52</v>
       </c>
       <c r="D8" s="1">
-        <v>-261.191000</v>
+        <v>-261.19099999999997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>66266.938329</v>
+        <v>66266.938328999997</v>
       </c>
       <c r="G8" s="1">
-        <v>18.407483</v>
+        <v>18.407482999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1167.130000</v>
+        <v>1167.1300000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-219.210000</v>
+        <v>-219.21</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>66277.592395</v>
@@ -2053,1600 +2469,1600 @@
         <v>18.410442</v>
       </c>
       <c r="M8" s="1">
-        <v>1196.040000</v>
+        <v>1196.04</v>
       </c>
       <c r="N8" s="1">
-        <v>-152.958000</v>
+        <v>-152.958</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>66288.100142</v>
+        <v>66288.100141999996</v>
       </c>
       <c r="Q8" s="1">
-        <v>18.413361</v>
+        <v>18.413360999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>1204.020000</v>
+        <v>1204.02</v>
       </c>
       <c r="S8" s="1">
-        <v>-130.523000</v>
+        <v>-130.523</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>66298.721012</v>
+        <v>66298.721011999995</v>
       </c>
       <c r="V8" s="1">
         <v>18.416311</v>
       </c>
       <c r="W8" s="1">
-        <v>1211.480000</v>
+        <v>1211.48</v>
       </c>
       <c r="X8" s="1">
-        <v>-109.116000</v>
+        <v>-109.116</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>66309.114145</v>
       </c>
       <c r="AA8" s="1">
-        <v>18.419198</v>
+        <v>18.419198000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1219.350000</v>
+        <v>1219.3499999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.786600</v>
+        <v>-91.786600000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>66319.652148</v>
+        <v>66319.652147999994</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.422126</v>
+        <v>18.422125999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1224.150000</v>
+        <v>1224.1500000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-87.046500</v>
+        <v>-87.046499999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>66330.123189</v>
+        <v>66330.123189000005</v>
       </c>
       <c r="AK8" s="1">
         <v>18.425034</v>
       </c>
       <c r="AL8" s="1">
-        <v>1231.100000</v>
+        <v>1231.0999999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.190100</v>
+        <v>-90.190100000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>66340.766840</v>
+        <v>66340.766839999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>18.427991</v>
+        <v>18.427990999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1239.020000</v>
+        <v>1239.02</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.052000</v>
+        <v>-102.05200000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>66351.412505</v>
       </c>
       <c r="AU8" s="1">
-        <v>18.430948</v>
+        <v>18.430948000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1249.030000</v>
+        <v>1249.03</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.472000</v>
+        <v>-121.47199999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>66362.488635</v>
+        <v>66362.488635000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.434025</v>
+        <v>18.434024999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1257.490000</v>
+        <v>1257.49</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.066000</v>
+        <v>-139.066</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>66373.102062</v>
+        <v>66373.102062000005</v>
       </c>
       <c r="BE8" s="1">
-        <v>18.436973</v>
+        <v>18.436972999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1298.040000</v>
+        <v>1298.04</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.575000</v>
+        <v>-221.57499999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>66384.298223</v>
+        <v>66384.298223000005</v>
       </c>
       <c r="BJ8" s="1">
-        <v>18.440083</v>
+        <v>18.440083000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1368.920000</v>
+        <v>1368.92</v>
       </c>
       <c r="BL8" s="1">
-        <v>-358.564000</v>
+        <v>-358.56400000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>66395.622912</v>
+        <v>66395.622912000006</v>
       </c>
       <c r="BO8" s="1">
-        <v>18.443229</v>
+        <v>18.443228999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1485.750000</v>
+        <v>1485.75</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.102000</v>
+        <v>-580.10199999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>66406.019027</v>
+        <v>66406.019027000002</v>
       </c>
       <c r="BT8" s="1">
         <v>18.446116</v>
       </c>
       <c r="BU8" s="1">
-        <v>1620.200000</v>
+        <v>1620.2</v>
       </c>
       <c r="BV8" s="1">
-        <v>-828.111000</v>
+        <v>-828.11099999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>66417.518770</v>
+        <v>66417.518769999995</v>
       </c>
       <c r="BY8" s="1">
-        <v>18.449311</v>
+        <v>18.449311000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1774.270000</v>
+        <v>1774.27</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1097.480000</v>
+        <v>-1097.48</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>66428.710515</v>
+        <v>66428.710514999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.452420</v>
+        <v>18.45242</v>
       </c>
       <c r="CE8" s="1">
-        <v>2192.770000</v>
+        <v>2192.77</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1745.690000</v>
+        <v>-1745.69</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>66256.528791</v>
+        <v>66256.528791000004</v>
       </c>
       <c r="B9" s="1">
         <v>18.404591</v>
       </c>
       <c r="C9" s="1">
-        <v>1144.530000</v>
+        <v>1144.53</v>
       </c>
       <c r="D9" s="1">
-        <v>-261.118000</v>
+        <v>-261.11799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>66267.285529</v>
+        <v>66267.285529000001</v>
       </c>
       <c r="G9" s="1">
-        <v>18.407579</v>
+        <v>18.407578999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1167.230000</v>
+        <v>1167.23</v>
       </c>
       <c r="I9" s="1">
-        <v>-219.791000</v>
+        <v>-219.791</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>66278.014491</v>
+        <v>66278.014490999994</v>
       </c>
       <c r="L9" s="1">
-        <v>18.410560</v>
+        <v>18.41056</v>
       </c>
       <c r="M9" s="1">
-        <v>1195.770000</v>
+        <v>1195.77</v>
       </c>
       <c r="N9" s="1">
-        <v>-153.021000</v>
+        <v>-153.02099999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>66288.521245</v>
+        <v>66288.521244999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>18.413478</v>
+        <v>18.413478000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1204.020000</v>
+        <v>1204.02</v>
       </c>
       <c r="S9" s="1">
-        <v>-130.570000</v>
+        <v>-130.57</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>66299.001217</v>
+        <v>66299.001216999997</v>
       </c>
       <c r="V9" s="1">
-        <v>18.416389</v>
+        <v>18.416388999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1211.540000</v>
+        <v>1211.54</v>
       </c>
       <c r="X9" s="1">
-        <v>-109.294000</v>
+        <v>-109.294</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>66309.460353</v>
+        <v>66309.460353000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>18.419295</v>
+        <v>18.419295000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>1219.290000</v>
+        <v>1219.29</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.689500</v>
+        <v>-91.689499999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>66319.995902</v>
+        <v>66319.995901999995</v>
       </c>
       <c r="AF9" s="1">
         <v>18.422221</v>
       </c>
       <c r="AG9" s="1">
-        <v>1223.910000</v>
+        <v>1223.9100000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.948900</v>
+        <v>-86.948899999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>66330.470390</v>
+        <v>66330.470390000002</v>
       </c>
       <c r="AK9" s="1">
         <v>18.425131</v>
       </c>
       <c r="AL9" s="1">
-        <v>1231.080000</v>
+        <v>1231.08</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.160700</v>
+        <v>-90.160700000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>66341.125943</v>
+        <v>66341.125943000006</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.428091</v>
+        <v>18.428090999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1239.040000</v>
+        <v>1239.04</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.065000</v>
+        <v>-102.065</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>66352.142088</v>
+        <v>66352.142087999993</v>
       </c>
       <c r="AU9" s="1">
         <v>18.431151</v>
       </c>
       <c r="AV9" s="1">
-        <v>1249.040000</v>
+        <v>1249.04</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.458000</v>
+        <v>-121.458</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>66362.863119</v>
+        <v>66362.863119000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>18.434129</v>
+        <v>18.434128999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1257.500000</v>
+        <v>1257.5</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.076000</v>
+        <v>-139.07599999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>66373.469100</v>
+        <v>66373.469100000002</v>
       </c>
       <c r="BE9" s="1">
         <v>18.437075</v>
       </c>
       <c r="BF9" s="1">
-        <v>1298.010000</v>
+        <v>1298.01</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.572000</v>
+        <v>-221.572</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>66384.671710</v>
+        <v>66384.671709999995</v>
       </c>
       <c r="BJ9" s="1">
-        <v>18.440187</v>
+        <v>18.440187000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1368.910000</v>
+        <v>1368.91</v>
       </c>
       <c r="BL9" s="1">
-        <v>-358.559000</v>
+        <v>-358.55900000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>66396.329689</v>
+        <v>66396.329689000006</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.443425</v>
+        <v>18.443425000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1485.700000</v>
+        <v>1485.7</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.115000</v>
+        <v>-580.11500000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>66406.739218</v>
+        <v>66406.739218000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>18.446316</v>
+        <v>18.446315999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1620.280000</v>
+        <v>1620.28</v>
       </c>
       <c r="BV9" s="1">
-        <v>-828.240000</v>
+        <v>-828.24</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>66417.653186</v>
+        <v>66417.653185999996</v>
       </c>
       <c r="BY9" s="1">
-        <v>18.449348</v>
+        <v>18.449348000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1774.260000</v>
+        <v>1774.26</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1097.540000</v>
+        <v>-1097.54</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>66429.227878</v>
+        <v>66429.227878000005</v>
       </c>
       <c r="CD9" s="1">
-        <v>18.452563</v>
+        <v>18.452563000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2192.770000</v>
+        <v>2192.77</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1745.990000</v>
+        <v>-1745.99</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>66257.131464</v>
+        <v>66257.131464000006</v>
       </c>
       <c r="B10" s="1">
-        <v>18.404759</v>
+        <v>18.404758999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1144.540000</v>
+        <v>1144.54</v>
       </c>
       <c r="D10" s="1">
-        <v>-261.372000</v>
+        <v>-261.37200000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>66267.712090</v>
+        <v>66267.712090000001</v>
       </c>
       <c r="G10" s="1">
         <v>18.407698</v>
       </c>
       <c r="H10" s="1">
-        <v>1166.910000</v>
+        <v>1166.9100000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-219.076000</v>
+        <v>-219.07599999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>66278.294235</v>
+        <v>66278.294234999994</v>
       </c>
       <c r="L10" s="1">
-        <v>18.410637</v>
+        <v>18.410637000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1195.960000</v>
+        <v>1195.96</v>
       </c>
       <c r="N10" s="1">
-        <v>-153.079000</v>
+        <v>-153.07900000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>66288.804460</v>
+        <v>66288.804459999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>18.413557</v>
+        <v>18.413557000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1204.030000</v>
+        <v>1204.03</v>
       </c>
       <c r="S10" s="1">
-        <v>-130.575000</v>
+        <v>-130.57499999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>66299.345934</v>
+        <v>66299.345933999997</v>
       </c>
       <c r="V10" s="1">
-        <v>18.416485</v>
+        <v>18.416485000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1211.690000</v>
+        <v>1211.69</v>
       </c>
       <c r="X10" s="1">
-        <v>-109.188000</v>
+        <v>-109.188</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>66309.809538</v>
+        <v>66309.809538000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>18.419392</v>
+        <v>18.419391999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>1219.310000</v>
+        <v>1219.31</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.709800</v>
+        <v>-91.709800000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>66320.340099</v>
+        <v>66320.340098999994</v>
       </c>
       <c r="AF10" s="1">
         <v>18.422317</v>
       </c>
       <c r="AG10" s="1">
-        <v>1224.200000</v>
+        <v>1224.2</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.823400</v>
+        <v>-86.823400000000007</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>66331.164324</v>
+        <v>66331.164323999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>18.425323</v>
+        <v>18.425322999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1231.100000</v>
+        <v>1231.0999999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.168700</v>
+        <v>-90.168700000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>66341.852106</v>
+        <v>66341.852106000006</v>
       </c>
       <c r="AP10" s="1">
-        <v>18.428292</v>
+        <v>18.428291999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1239.020000</v>
+        <v>1239.02</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.058000</v>
+        <v>-102.05800000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>66352.534922</v>
+        <v>66352.534922000006</v>
       </c>
       <c r="AU10" s="1">
-        <v>18.431260</v>
+        <v>18.431260000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1249.030000</v>
+        <v>1249.03</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.452000</v>
+        <v>-121.452</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>66363.241562</v>
+        <v>66363.241561999996</v>
       </c>
       <c r="AZ10" s="1">
         <v>18.434234</v>
       </c>
       <c r="BA10" s="1">
-        <v>1257.520000</v>
+        <v>1257.52</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.069000</v>
+        <v>-139.06899999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>66373.829691</v>
+        <v>66373.829691000006</v>
       </c>
       <c r="BE10" s="1">
         <v>18.437175</v>
       </c>
       <c r="BF10" s="1">
-        <v>1298.010000</v>
+        <v>1298.01</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.577000</v>
+        <v>-221.577</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>66385.382508</v>
+        <v>66385.382507999995</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.440384</v>
+        <v>18.440384000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1368.920000</v>
+        <v>1368.92</v>
       </c>
       <c r="BL10" s="1">
-        <v>-358.538000</v>
+        <v>-358.53800000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>66396.438332</v>
+        <v>66396.438332000005</v>
       </c>
       <c r="BO10" s="1">
         <v>18.443455</v>
       </c>
       <c r="BP10" s="1">
-        <v>1485.690000</v>
+        <v>1485.69</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-580.156000</v>
+        <v>-580.15599999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>66406.851313</v>
+        <v>66406.851313000006</v>
       </c>
       <c r="BT10" s="1">
         <v>18.446348</v>
       </c>
       <c r="BU10" s="1">
-        <v>1620.340000</v>
+        <v>1620.34</v>
       </c>
       <c r="BV10" s="1">
-        <v>-828.172000</v>
+        <v>-828.17200000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>66418.075282</v>
+        <v>66418.075282000005</v>
       </c>
       <c r="BY10" s="1">
         <v>18.449465</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1774.160000</v>
+        <v>1774.16</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1097.740000</v>
+        <v>-1097.74</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>66429.780898</v>
+        <v>66429.780897999997</v>
       </c>
       <c r="CD10" s="1">
         <v>18.452717</v>
       </c>
       <c r="CE10" s="1">
-        <v>2194.080000</v>
+        <v>2194.08</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1744.940000</v>
+        <v>-1744.94</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>66257.556007</v>
+        <v>66257.556007000007</v>
       </c>
       <c r="B11" s="1">
-        <v>18.404877</v>
+        <v>18.404876999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1144.470000</v>
+        <v>1144.47</v>
       </c>
       <c r="D11" s="1">
-        <v>-261.317000</v>
+        <v>-261.31700000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>66268.212056</v>
+        <v>66268.212056000004</v>
       </c>
       <c r="G11" s="1">
-        <v>18.407837</v>
+        <v>18.407837000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1167.560000</v>
+        <v>1167.56</v>
       </c>
       <c r="I11" s="1">
-        <v>-220.527000</v>
+        <v>-220.52699999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>66278.641048</v>
+        <v>66278.641048000005</v>
       </c>
       <c r="L11" s="1">
-        <v>18.410734</v>
+        <v>18.410734000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1196.170000</v>
+        <v>1196.17</v>
       </c>
       <c r="N11" s="1">
-        <v>-152.956000</v>
+        <v>-152.95599999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>66289.157613</v>
+        <v>66289.157613000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.413655</v>
+        <v>18.413654999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1204.000000</v>
+        <v>1204</v>
       </c>
       <c r="S11" s="1">
-        <v>-130.471000</v>
+        <v>-130.471</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>66299.690158</v>
+        <v>66299.690157999998</v>
       </c>
       <c r="V11" s="1">
-        <v>18.416581</v>
+        <v>18.416581000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1211.640000</v>
+        <v>1211.6400000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-109.203000</v>
+        <v>-109.203</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>66310.505919</v>
+        <v>66310.505919000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>18.419585</v>
+        <v>18.419585000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1219.290000</v>
+        <v>1219.29</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.692500</v>
+        <v>-91.692499999999995</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>66321.024610</v>
+        <v>66321.024609999993</v>
       </c>
       <c r="AF11" s="1">
         <v>18.422507</v>
       </c>
       <c r="AG11" s="1">
-        <v>1223.970000</v>
+        <v>1223.97</v>
       </c>
       <c r="AH11" s="1">
-        <v>-87.008900</v>
+        <v>-87.008899999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>66331.512485</v>
+        <v>66331.512484999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>18.425420</v>
+        <v>18.425419999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1231.100000</v>
+        <v>1231.0999999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.160400</v>
+        <v>-90.160399999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>66342.232518</v>
+        <v>66342.232518000004</v>
       </c>
       <c r="AP11" s="1">
-        <v>18.428398</v>
+        <v>18.428398000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1239.060000</v>
+        <v>1239.06</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.067000</v>
+        <v>-102.06699999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>66352.897001</v>
+        <v>66352.897001000005</v>
       </c>
       <c r="AU11" s="1">
-        <v>18.431360</v>
+        <v>18.431360000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>1249.020000</v>
+        <v>1249.02</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.460000</v>
+        <v>-121.46</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>66363.915129</v>
+        <v>66363.915129000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>18.434421</v>
       </c>
       <c r="BA11" s="1">
-        <v>1257.490000</v>
+        <v>1257.49</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.053000</v>
+        <v>-139.053</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>66374.517612</v>
+        <v>66374.517611999996</v>
       </c>
       <c r="BE11" s="1">
-        <v>18.437366</v>
+        <v>18.437366000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1298.020000</v>
+        <v>1298.02</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.580000</v>
+        <v>-221.58</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>66385.823452</v>
+        <v>66385.823451999997</v>
       </c>
       <c r="BJ11" s="1">
         <v>18.440507</v>
       </c>
       <c r="BK11" s="1">
-        <v>1368.940000</v>
+        <v>1368.94</v>
       </c>
       <c r="BL11" s="1">
-        <v>-358.580000</v>
+        <v>-358.58</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>66396.861425</v>
+        <v>66396.861424999996</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.443573</v>
+        <v>18.443573000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1485.700000</v>
+        <v>1485.7</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.113000</v>
+        <v>-580.11300000000006</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>66407.285348</v>
+        <v>66407.285348000005</v>
       </c>
       <c r="BT11" s="1">
-        <v>18.446468</v>
+        <v>18.446467999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1620.480000</v>
+        <v>1620.48</v>
       </c>
       <c r="BV11" s="1">
-        <v>-828.279000</v>
+        <v>-828.279</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>66418.500355</v>
+        <v>66418.500354999996</v>
       </c>
       <c r="BY11" s="1">
-        <v>18.449583</v>
+        <v>18.449583000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1774.420000</v>
+        <v>1774.42</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1097.670000</v>
+        <v>-1097.67</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>66430.310098</v>
+        <v>66430.310098000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>18.452864</v>
+        <v>18.452864000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>2192.770000</v>
+        <v>2192.77</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1746.220000</v>
+        <v>-1746.22</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>66257.899766</v>
+        <v>66257.899766000002</v>
       </c>
       <c r="B12" s="1">
-        <v>18.404972</v>
+        <v>18.404972000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1144.330000</v>
+        <v>1144.33</v>
       </c>
       <c r="D12" s="1">
-        <v>-261.254000</v>
+        <v>-261.25400000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>66268.562766</v>
+        <v>66268.562766000003</v>
       </c>
       <c r="G12" s="1">
-        <v>18.407934</v>
+        <v>18.407934000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1167.330000</v>
+        <v>1167.33</v>
       </c>
       <c r="I12" s="1">
-        <v>-219.899000</v>
+        <v>-219.899</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>66278.983710</v>
+        <v>66278.98371</v>
       </c>
       <c r="L12" s="1">
         <v>18.410829</v>
       </c>
       <c r="M12" s="1">
-        <v>1195.940000</v>
+        <v>1195.94</v>
       </c>
       <c r="N12" s="1">
-        <v>-152.958000</v>
+        <v>-152.958</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>66289.508780</v>
+        <v>66289.508780000004</v>
       </c>
       <c r="Q12" s="1">
-        <v>18.413752</v>
+        <v>18.413751999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1204.030000</v>
+        <v>1204.03</v>
       </c>
       <c r="S12" s="1">
-        <v>-130.449000</v>
+        <v>-130.44900000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>66300.374142</v>
+        <v>66300.374142000001</v>
       </c>
       <c r="V12" s="1">
-        <v>18.416771</v>
+        <v>18.416771000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1211.680000</v>
+        <v>1211.68</v>
       </c>
       <c r="X12" s="1">
-        <v>-109.140000</v>
+        <v>-109.14</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>66310.851633</v>
+        <v>66310.851632999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.419681</v>
+        <v>18.419681000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1219.190000</v>
+        <v>1219.19</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.755400</v>
+        <v>-91.755399999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>66321.367315</v>
+        <v>66321.367314999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.422602</v>
+        <v>18.422602000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1224.090000</v>
+        <v>1224.0899999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.905200</v>
+        <v>-86.905199999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>66331.863155</v>
+        <v>66331.863154999999</v>
       </c>
       <c r="AK12" s="1">
         <v>18.425518</v>
       </c>
       <c r="AL12" s="1">
-        <v>1231.100000</v>
+        <v>1231.0999999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.148300</v>
+        <v>-90.148300000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>66342.902615</v>
+        <v>66342.902614999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>18.428584</v>
+        <v>18.428584000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1239.050000</v>
+        <v>1239.05</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.062000</v>
+        <v>-102.062</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>66353.583467</v>
+        <v>66353.583467000004</v>
       </c>
       <c r="AU12" s="1">
-        <v>18.431551</v>
+        <v>18.431550999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1249.020000</v>
+        <v>1249.02</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.465000</v>
+        <v>-121.465</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>66364.325843</v>
+        <v>66364.325842999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>18.434535</v>
       </c>
       <c r="BA12" s="1">
-        <v>1257.500000</v>
+        <v>1257.5</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.075000</v>
+        <v>-139.07499999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>66374.941234</v>
+        <v>66374.941233999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>18.437484</v>
+        <v>18.437484000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1298.050000</v>
+        <v>1298.05</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.569000</v>
+        <v>-221.56899999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>66386.227661</v>
+        <v>66386.227660999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>18.440619</v>
+        <v>18.440619000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1368.910000</v>
+        <v>1368.91</v>
       </c>
       <c r="BL12" s="1">
-        <v>-358.549000</v>
+        <v>-358.54899999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>66397.257693</v>
+        <v>66397.257693000007</v>
       </c>
       <c r="BO12" s="1">
         <v>18.443683</v>
       </c>
       <c r="BP12" s="1">
-        <v>1485.660000</v>
+        <v>1485.66</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-580.056000</v>
+        <v>-580.05600000000004</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>66407.711375</v>
+        <v>66407.711374999999</v>
       </c>
       <c r="BT12" s="1">
         <v>18.446586</v>
       </c>
       <c r="BU12" s="1">
-        <v>1620.510000</v>
+        <v>1620.51</v>
       </c>
       <c r="BV12" s="1">
-        <v>-828.402000</v>
+        <v>-828.40200000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>66418.928656</v>
+        <v>66418.928656000004</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.449702</v>
+        <v>18.449701999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1774.250000</v>
+        <v>1774.25</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1097.600000</v>
+        <v>-1097.5999999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>66430.829441</v>
+        <v>66430.829440999994</v>
       </c>
       <c r="CD12" s="1">
-        <v>18.453008</v>
+        <v>18.453008000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2194.180000</v>
+        <v>2194.1799999999998</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1747.250000</v>
+        <v>-1747.25</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>66258.242979</v>
+        <v>66258.242979000002</v>
       </c>
       <c r="B13" s="1">
-        <v>18.405067</v>
+        <v>18.405066999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1144.430000</v>
+        <v>1144.43</v>
       </c>
       <c r="D13" s="1">
-        <v>-261.530000</v>
+        <v>-261.52999999999997</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>66268.909464</v>
+        <v>66268.909463999997</v>
       </c>
       <c r="G13" s="1">
-        <v>18.408030</v>
+        <v>18.40803</v>
       </c>
       <c r="H13" s="1">
-        <v>1166.900000</v>
+        <v>1166.9000000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-219.794000</v>
+        <v>-219.79400000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>66279.678104</v>
+        <v>66279.678104000006</v>
       </c>
       <c r="L13" s="1">
-        <v>18.411022</v>
+        <v>18.411021999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1195.970000</v>
+        <v>1195.97</v>
       </c>
       <c r="N13" s="1">
-        <v>-152.985000</v>
+        <v>-152.98500000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>66290.226490</v>
+        <v>66290.226490000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.413952</v>
+        <v>18.413951999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>1204.080000</v>
+        <v>1204.08</v>
       </c>
       <c r="S13" s="1">
-        <v>-130.492000</v>
+        <v>-130.49199999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>66300.717901</v>
+        <v>66300.717900999996</v>
       </c>
       <c r="V13" s="1">
-        <v>18.416866</v>
+        <v>18.416865999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1211.550000</v>
+        <v>1211.55</v>
       </c>
       <c r="X13" s="1">
-        <v>-109.177000</v>
+        <v>-109.17700000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>66311.204287</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.419779</v>
+        <v>18.419778999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>1219.320000</v>
+        <v>1219.32</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.797100</v>
+        <v>-91.7971</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>66321.712530</v>
+        <v>66321.712530000004</v>
       </c>
       <c r="AF13" s="1">
         <v>18.422698</v>
       </c>
       <c r="AG13" s="1">
-        <v>1224.230000</v>
+        <v>1224.23</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.895700</v>
+        <v>-86.895700000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>66332.522371</v>
+        <v>66332.522370999999</v>
       </c>
       <c r="AK13" s="1">
         <v>18.425701</v>
       </c>
       <c r="AL13" s="1">
-        <v>1231.100000</v>
+        <v>1231.0999999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.152500</v>
+        <v>-90.152500000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>66343.312343</v>
+        <v>66343.312342999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>18.428698</v>
+        <v>18.428698000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1239.020000</v>
+        <v>1239.02</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.089000</v>
+        <v>-102.089</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>66353.990183</v>
+        <v>66353.990183000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>18.431664</v>
+        <v>18.431664000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1249.020000</v>
+        <v>1249.02</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.491000</v>
+        <v>-121.491</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>66364.700828</v>
+        <v>66364.700828000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>18.434639</v>
+        <v>18.434639000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1257.490000</v>
+        <v>1257.49</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.066000</v>
+        <v>-139.066</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>66375.328570</v>
+        <v>66375.328569999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>18.437591</v>
+        <v>18.437591000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1298.030000</v>
+        <v>1298.03</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.588000</v>
+        <v>-221.58799999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>66386.600187</v>
+        <v>66386.600187000004</v>
       </c>
       <c r="BJ13" s="1">
-        <v>18.440722</v>
+        <v>18.440722000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1368.930000</v>
+        <v>1368.93</v>
       </c>
       <c r="BL13" s="1">
-        <v>-358.557000</v>
+        <v>-358.55700000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>66397.679789</v>
+        <v>66397.679789000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.443800</v>
+        <v>18.4438</v>
       </c>
       <c r="BP13" s="1">
-        <v>1485.680000</v>
+        <v>1485.68</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.145000</v>
+        <v>-580.14499999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>66408.131983</v>
+        <v>66408.131982999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>18.446703</v>
+        <v>18.446702999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1620.640000</v>
+        <v>1620.64</v>
       </c>
       <c r="BV13" s="1">
-        <v>-828.517000</v>
+        <v>-828.51700000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>66419.364416</v>
+        <v>66419.364415999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>18.449823</v>
+        <v>18.449822999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1774.140000</v>
+        <v>1774.14</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1097.770000</v>
+        <v>-1097.77</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>66431.346272</v>
+        <v>66431.346271999995</v>
       </c>
       <c r="CD13" s="1">
-        <v>18.453152</v>
+        <v>18.453151999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2195.150000</v>
+        <v>2195.15</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1745.820000</v>
+        <v>-1745.82</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>66258.926231</v>
+        <v>66258.926231000005</v>
       </c>
       <c r="B14" s="1">
-        <v>18.405257</v>
+        <v>18.405256999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1144.550000</v>
+        <v>1144.55</v>
       </c>
       <c r="D14" s="1">
-        <v>-261.081000</v>
+        <v>-261.08100000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>66269.597887</v>
+        <v>66269.597886999996</v>
       </c>
       <c r="G14" s="1">
-        <v>18.408222</v>
+        <v>18.408221999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1166.850000</v>
+        <v>1166.8499999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-219.495000</v>
+        <v>-219.495</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>66280.020839</v>
+        <v>66280.020839000004</v>
       </c>
       <c r="L14" s="1">
-        <v>18.411117</v>
+        <v>18.411117000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1195.880000</v>
+        <v>1195.8800000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-153.042000</v>
+        <v>-153.042</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>66290.554346</v>
+        <v>66290.554346000004</v>
       </c>
       <c r="Q14" s="1">
-        <v>18.414043</v>
+        <v>18.414042999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1204.090000</v>
+        <v>1204.0899999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-130.524000</v>
+        <v>-130.524</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>66301.061100</v>
+        <v>66301.061100000006</v>
       </c>
       <c r="V14" s="1">
-        <v>18.416961</v>
+        <v>18.416961000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1211.550000</v>
+        <v>1211.55</v>
       </c>
       <c r="X14" s="1">
-        <v>-109.308000</v>
+        <v>-109.30800000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>66311.867437</v>
+        <v>66311.867436999994</v>
       </c>
       <c r="AA14" s="1">
-        <v>18.419963</v>
+        <v>18.419962999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1219.340000</v>
+        <v>1219.3399999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.650000</v>
+        <v>-91.65</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>66322.371216</v>
@@ -3655,2159 +4071,2159 @@
         <v>18.422881</v>
       </c>
       <c r="AG14" s="1">
-        <v>1224.060000</v>
+        <v>1224.06</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.981500</v>
+        <v>-86.981499999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>66332.908722</v>
+        <v>66332.908721999993</v>
       </c>
       <c r="AK14" s="1">
         <v>18.425808</v>
       </c>
       <c r="AL14" s="1">
-        <v>1231.100000</v>
+        <v>1231.0999999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.194500</v>
+        <v>-90.194500000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>66343.671413</v>
+        <v>66343.671413000004</v>
       </c>
       <c r="AP14" s="1">
         <v>18.428798</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1239.010000</v>
+        <v>1239.01</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.067000</v>
+        <v>-102.06699999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>66354.357718</v>
+        <v>66354.357717999999</v>
       </c>
       <c r="AU14" s="1">
         <v>18.431766</v>
       </c>
       <c r="AV14" s="1">
-        <v>1249.050000</v>
+        <v>1249.05</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.494000</v>
+        <v>-121.494</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>66365.079768</v>
+        <v>66365.079767999996</v>
       </c>
       <c r="AZ14" s="1">
-        <v>18.434744</v>
+        <v>18.434743999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1257.510000</v>
+        <v>1257.51</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.051000</v>
+        <v>-139.05099999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>66375.660916</v>
+        <v>66375.660915999993</v>
       </c>
       <c r="BE14" s="1">
-        <v>18.437684</v>
+        <v>18.437684000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1298.050000</v>
+        <v>1298.05</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.585000</v>
+        <v>-221.58500000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>66387.011848</v>
+        <v>66387.011847999995</v>
       </c>
       <c r="BJ14" s="1">
-        <v>18.440837</v>
+        <v>18.440836999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1368.940000</v>
+        <v>1368.94</v>
       </c>
       <c r="BL14" s="1">
-        <v>-358.558000</v>
+        <v>-358.55799999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>66398.078077</v>
+        <v>66398.078076999998</v>
       </c>
       <c r="BO14" s="1">
         <v>18.443911</v>
       </c>
       <c r="BP14" s="1">
-        <v>1485.720000</v>
+        <v>1485.72</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.133000</v>
+        <v>-580.13300000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>66408.560030</v>
+        <v>66408.560029999993</v>
       </c>
       <c r="BT14" s="1">
-        <v>18.446822</v>
+        <v>18.446822000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1620.600000</v>
+        <v>1620.6</v>
       </c>
       <c r="BV14" s="1">
-        <v>-828.692000</v>
+        <v>-828.69200000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>66419.786976</v>
+        <v>66419.786976000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>18.449941</v>
+        <v>18.449940999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1774.130000</v>
+        <v>1774.13</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1097.590000</v>
+        <v>-1097.5899999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>66431.864100</v>
+        <v>66431.864100000006</v>
       </c>
       <c r="CD14" s="1">
-        <v>18.453296</v>
+        <v>18.453296000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>2195.300000</v>
+        <v>2195.3000000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1745.870000</v>
+        <v>-1745.87</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>66259.272660</v>
+        <v>66259.272660000002</v>
       </c>
       <c r="B15" s="1">
-        <v>18.405354</v>
+        <v>18.405353999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1144.280000</v>
+        <v>1144.28</v>
       </c>
       <c r="D15" s="1">
-        <v>-261.292000</v>
+        <v>-261.29199999999997</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>66269.930695</v>
+        <v>66269.930695000003</v>
       </c>
       <c r="G15" s="1">
-        <v>18.408314</v>
+        <v>18.408314000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1166.720000</v>
+        <v>1166.72</v>
       </c>
       <c r="I15" s="1">
-        <v>-219.553000</v>
+        <v>-219.553</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>66280.366025</v>
+        <v>66280.366024999996</v>
       </c>
       <c r="L15" s="1">
         <v>18.411213</v>
       </c>
       <c r="M15" s="1">
-        <v>1195.970000</v>
+        <v>1195.97</v>
       </c>
       <c r="N15" s="1">
-        <v>-153.095000</v>
+        <v>-153.095</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>66291.210091</v>
+        <v>66291.210091000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>18.414225</v>
+        <v>18.414224999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1203.970000</v>
+        <v>1203.97</v>
       </c>
       <c r="S15" s="1">
-        <v>-130.547000</v>
+        <v>-130.547</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>66301.724251</v>
+        <v>66301.724251000007</v>
       </c>
       <c r="V15" s="1">
-        <v>18.417146</v>
+        <v>18.417145999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1211.710000</v>
+        <v>1211.71</v>
       </c>
       <c r="X15" s="1">
-        <v>-109.199000</v>
+        <v>-109.199</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>66312.246879</v>
+        <v>66312.246878999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>18.420069</v>
+        <v>18.420069000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>1219.310000</v>
+        <v>1219.31</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.726100</v>
+        <v>-91.726100000000002</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>66322.741760</v>
+        <v>66322.741760000004</v>
       </c>
       <c r="AF15" s="1">
         <v>18.422984</v>
       </c>
       <c r="AG15" s="1">
-        <v>1224.070000</v>
+        <v>1224.07</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.983000</v>
+        <v>-86.983000000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>66333.256951</v>
+        <v>66333.256951000003</v>
       </c>
       <c r="AK15" s="1">
         <v>18.425905</v>
       </c>
       <c r="AL15" s="1">
-        <v>1231.090000</v>
+        <v>1231.0899999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.159100</v>
+        <v>-90.159099999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>66344.034484</v>
+        <v>66344.034484000003</v>
       </c>
       <c r="AP15" s="1">
         <v>18.428898</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1239.050000</v>
+        <v>1239.05</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.071000</v>
+        <v>-102.071</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>66354.722309</v>
+        <v>66354.722309000004</v>
       </c>
       <c r="AU15" s="1">
         <v>18.431867</v>
       </c>
       <c r="AV15" s="1">
-        <v>1249.020000</v>
+        <v>1249.02</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.489000</v>
+        <v>-121.489</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>66365.500840</v>
+        <v>66365.500839999993</v>
       </c>
       <c r="AZ15" s="1">
-        <v>18.434861</v>
+        <v>18.434861000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1257.530000</v>
+        <v>1257.53</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.059000</v>
+        <v>-139.059</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>66376.388024</v>
       </c>
       <c r="BE15" s="1">
-        <v>18.437886</v>
+        <v>18.437885999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1298.030000</v>
+        <v>1298.03</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.570000</v>
+        <v>-221.57</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>66387.376401</v>
+        <v>66387.376401000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>18.440938</v>
+        <v>18.440937999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1368.920000</v>
+        <v>1368.92</v>
       </c>
       <c r="BL15" s="1">
-        <v>-358.571000</v>
+        <v>-358.57100000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>66398.499207</v>
+        <v>66398.499207000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>18.444028</v>
+        <v>18.444027999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1485.680000</v>
+        <v>1485.68</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-580.075000</v>
+        <v>-580.07500000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>66408.987086</v>
+        <v>66408.987085999994</v>
       </c>
       <c r="BT15" s="1">
-        <v>18.446941</v>
+        <v>18.446940999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1620.550000</v>
+        <v>1620.55</v>
       </c>
       <c r="BV15" s="1">
-        <v>-828.814000</v>
+        <v>-828.81399999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>66420.209071</v>
+        <v>66420.209071000005</v>
       </c>
       <c r="BY15" s="1">
-        <v>18.450058</v>
+        <v>18.450057999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1774.160000</v>
+        <v>1774.16</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1097.640000</v>
+        <v>-1097.6400000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>66432.414128</v>
+        <v>66432.414128000004</v>
       </c>
       <c r="CD15" s="1">
-        <v>18.453448</v>
+        <v>18.453448000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>2194.400000</v>
+        <v>2194.4</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1747.310000</v>
+        <v>-1747.31</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>66259.616387</v>
+        <v>66259.616387000002</v>
       </c>
       <c r="B16" s="1">
-        <v>18.405449</v>
+        <v>18.405449000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1144.500000</v>
+        <v>1144.5</v>
       </c>
       <c r="D16" s="1">
-        <v>-261.345000</v>
+        <v>-261.34500000000003</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>66270.288805</v>
+        <v>66270.288805000004</v>
       </c>
       <c r="G16" s="1">
         <v>18.408414</v>
       </c>
       <c r="H16" s="1">
-        <v>1167.500000</v>
+        <v>1167.5</v>
       </c>
       <c r="I16" s="1">
-        <v>-219.312000</v>
+        <v>-219.31200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>66281.022262</v>
+        <v>66281.022261999999</v>
       </c>
       <c r="L16" s="1">
-        <v>18.411395</v>
+        <v>18.411394999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1195.600000</v>
+        <v>1195.5999999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-153.060000</v>
+        <v>-153.06</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>66291.602393</v>
+        <v>66291.602392999994</v>
       </c>
       <c r="Q16" s="1">
         <v>18.414334</v>
       </c>
       <c r="R16" s="1">
-        <v>1203.970000</v>
+        <v>1203.97</v>
       </c>
       <c r="S16" s="1">
-        <v>-130.482000</v>
+        <v>-130.482</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>66302.090796</v>
+        <v>66302.090796000004</v>
       </c>
       <c r="V16" s="1">
         <v>18.417247</v>
       </c>
       <c r="W16" s="1">
-        <v>1211.740000</v>
+        <v>1211.74</v>
       </c>
       <c r="X16" s="1">
-        <v>-109.014000</v>
+        <v>-109.014</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>66312.597054</v>
+        <v>66312.597053999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>18.420166</v>
+        <v>18.420165999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1219.280000</v>
+        <v>1219.28</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.723400</v>
+        <v>-91.723399999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>66323.087935</v>
+        <v>66323.087935000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.423080</v>
+        <v>18.423079999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1224.010000</v>
+        <v>1224.01</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.969900</v>
+        <v>-86.969899999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>66333.607121</v>
+        <v>66333.607120999994</v>
       </c>
       <c r="AK16" s="1">
         <v>18.426002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1231.110000</v>
+        <v>1231.1099999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.157100</v>
+        <v>-90.1571</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>66344.470503</v>
+        <v>66344.470503000004</v>
       </c>
       <c r="AP16" s="1">
-        <v>18.429020</v>
+        <v>18.429020000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1239.050000</v>
+        <v>1239.05</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.084000</v>
+        <v>-102.084</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>66355.140439</v>
+        <v>66355.140438999995</v>
       </c>
       <c r="AU16" s="1">
-        <v>18.431983</v>
+        <v>18.431982999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1249.030000</v>
+        <v>1249.03</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.485000</v>
+        <v>-121.485</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>66365.797448</v>
+        <v>66365.797447999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.434944</v>
+        <v>18.434944000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1257.540000</v>
+        <v>1257.54</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.073000</v>
+        <v>-139.07300000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>66376.767465</v>
+        <v>66376.767464999997</v>
       </c>
       <c r="BE16" s="1">
         <v>18.437991</v>
       </c>
       <c r="BF16" s="1">
-        <v>1298.040000</v>
+        <v>1298.04</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.583000</v>
+        <v>-221.583</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>66387.751898</v>
+        <v>66387.751898000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>18.441042</v>
+        <v>18.441041999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1368.880000</v>
+        <v>1368.88</v>
       </c>
       <c r="BL16" s="1">
-        <v>-358.537000</v>
+        <v>-358.53699999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>66398.897146</v>
+        <v>66398.897146000003</v>
       </c>
       <c r="BO16" s="1">
-        <v>18.444138</v>
+        <v>18.444137999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1485.690000</v>
+        <v>1485.69</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.109000</v>
+        <v>-580.10900000000004</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>66409.396780</v>
+        <v>66409.396779999995</v>
       </c>
       <c r="BT16" s="1">
-        <v>18.447055</v>
+        <v>18.447054999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1620.430000</v>
+        <v>1620.43</v>
       </c>
       <c r="BV16" s="1">
-        <v>-828.942000</v>
+        <v>-828.94200000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>66420.659440</v>
+        <v>66420.659440000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>18.450183</v>
+        <v>18.450182999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1774.220000</v>
+        <v>1774.22</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1097.580000</v>
+        <v>-1097.58</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>66432.944099</v>
       </c>
       <c r="CD16" s="1">
-        <v>18.453596</v>
+        <v>18.453596000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2194.820000</v>
+        <v>2194.8200000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1745.640000</v>
+        <v>-1745.64</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>66260.273090</v>
+        <v>66260.273090000002</v>
       </c>
       <c r="B17" s="1">
         <v>18.405631</v>
       </c>
       <c r="C17" s="1">
-        <v>1144.830000</v>
+        <v>1144.83</v>
       </c>
       <c r="D17" s="1">
-        <v>-261.409000</v>
+        <v>-261.40899999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>66270.938565</v>
+        <v>66270.938565000004</v>
       </c>
       <c r="G17" s="1">
-        <v>18.408594</v>
+        <v>18.408594000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1167.230000</v>
+        <v>1167.23</v>
       </c>
       <c r="I17" s="1">
-        <v>-219.380000</v>
+        <v>-219.38</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>66281.404150</v>
+        <v>66281.404150000002</v>
       </c>
       <c r="L17" s="1">
-        <v>18.411501</v>
+        <v>18.411501000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1195.800000</v>
+        <v>1195.8</v>
       </c>
       <c r="N17" s="1">
-        <v>-152.848000</v>
+        <v>-152.84800000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>66291.951612</v>
+        <v>66291.951612000004</v>
       </c>
       <c r="Q17" s="1">
         <v>18.414431</v>
       </c>
       <c r="R17" s="1">
-        <v>1204.060000</v>
+        <v>1204.06</v>
       </c>
       <c r="S17" s="1">
-        <v>-130.476000</v>
+        <v>-130.476</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>66302.434560</v>
+        <v>66302.434559999994</v>
       </c>
       <c r="V17" s="1">
-        <v>18.417343</v>
+        <v>18.417342999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1211.570000</v>
+        <v>1211.57</v>
       </c>
       <c r="X17" s="1">
-        <v>-109.249000</v>
+        <v>-109.249</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>66312.945279</v>
+        <v>66312.945279000007</v>
       </c>
       <c r="AA17" s="1">
-        <v>18.420263</v>
+        <v>18.420262999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>1219.250000</v>
+        <v>1219.25</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.681100</v>
+        <v>-91.681100000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>66323.440628</v>
+        <v>66323.440627999997</v>
       </c>
       <c r="AF17" s="1">
         <v>18.423178</v>
       </c>
       <c r="AG17" s="1">
-        <v>1224.040000</v>
+        <v>1224.04</v>
       </c>
       <c r="AH17" s="1">
-        <v>-87.024100</v>
+        <v>-87.024100000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>66334.036137</v>
+        <v>66334.036137000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>18.426121</v>
+        <v>18.426120999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1231.150000</v>
+        <v>1231.1500000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.182000</v>
+        <v>-90.182000000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>66344.752692</v>
+        <v>66344.752691999995</v>
       </c>
       <c r="AP17" s="1">
         <v>18.429098</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1239.020000</v>
+        <v>1239.02</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.070000</v>
+        <v>-102.07</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>66355.450406</v>
+        <v>66355.450406000004</v>
       </c>
       <c r="AU17" s="1">
-        <v>18.432070</v>
+        <v>18.43207</v>
       </c>
       <c r="AV17" s="1">
-        <v>1249.050000</v>
+        <v>1249.05</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.481000</v>
+        <v>-121.48099999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>66366.158040</v>
+        <v>66366.158039999995</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.435044</v>
+        <v>18.435044000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1257.500000</v>
+        <v>1257.5</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.043000</v>
+        <v>-139.04300000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>66377.129576</v>
+        <v>66377.129576000007</v>
       </c>
       <c r="BE17" s="1">
-        <v>18.438092</v>
+        <v>18.438092000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1298.040000</v>
+        <v>1298.04</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.559000</v>
+        <v>-221.559</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>66388.130344</v>
+        <v>66388.130344000005</v>
       </c>
       <c r="BJ17" s="1">
-        <v>18.441147</v>
+        <v>18.441147000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1368.880000</v>
+        <v>1368.88</v>
       </c>
       <c r="BL17" s="1">
-        <v>-358.576000</v>
+        <v>-358.57600000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>66399.318602</v>
+        <v>66399.318601999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>18.444255</v>
+        <v>18.444254999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1485.670000</v>
+        <v>1485.67</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-580.095000</v>
+        <v>-580.09500000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>66410.255852</v>
+        <v>66410.255852000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.447293</v>
+        <v>18.447292999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1620.360000</v>
+        <v>1620.36</v>
       </c>
       <c r="BV17" s="1">
-        <v>-829.009000</v>
+        <v>-829.00900000000001</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>66421.085006</v>
+        <v>66421.085005999994</v>
       </c>
       <c r="BY17" s="1">
         <v>18.450301</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1774.230000</v>
+        <v>1774.23</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1097.640000</v>
+        <v>-1097.6400000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>66433.461678</v>
+        <v>66433.461678000007</v>
       </c>
       <c r="CD17" s="1">
-        <v>18.453739</v>
+        <v>18.453738999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2192.680000</v>
+        <v>2192.6799999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1745.660000</v>
+        <v>-1745.66</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>66260.639139</v>
+        <v>66260.639139000006</v>
       </c>
       <c r="B18" s="1">
-        <v>18.405733</v>
+        <v>18.405733000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1144.720000</v>
+        <v>1144.72</v>
       </c>
       <c r="D18" s="1">
-        <v>-261.298000</v>
+        <v>-261.298</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>66271.325939</v>
+        <v>66271.325939000002</v>
       </c>
       <c r="G18" s="1">
-        <v>18.408702</v>
+        <v>18.408702000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1166.630000</v>
+        <v>1166.6300000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-219.546000</v>
+        <v>-219.54599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>66281.748869</v>
+        <v>66281.748869000003</v>
       </c>
       <c r="L18" s="1">
         <v>18.411597</v>
       </c>
       <c r="M18" s="1">
-        <v>1195.960000</v>
+        <v>1195.96</v>
       </c>
       <c r="N18" s="1">
-        <v>-152.819000</v>
+        <v>-152.81899999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>66292.302776</v>
+        <v>66292.302775999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>18.414529</v>
+        <v>18.414529000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>1204.040000</v>
+        <v>1204.04</v>
       </c>
       <c r="S18" s="1">
-        <v>-130.508000</v>
+        <v>-130.50800000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>66302.782714</v>
+        <v>66302.782714000001</v>
       </c>
       <c r="V18" s="1">
-        <v>18.417440</v>
+        <v>18.417439999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1211.700000</v>
+        <v>1211.7</v>
       </c>
       <c r="X18" s="1">
-        <v>-109.220000</v>
+        <v>-109.22</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>66313.373329</v>
+        <v>66313.373328999995</v>
       </c>
       <c r="AA18" s="1">
-        <v>18.420381</v>
+        <v>18.420380999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1219.580000</v>
+        <v>1219.58</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.366600</v>
+        <v>-91.366600000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>66323.864671</v>
+        <v>66323.864671000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.423296</v>
+        <v>18.423296000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1223.790000</v>
+        <v>1223.79</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.920000</v>
+        <v>-86.92</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>66334.311904</v>
+        <v>66334.311904000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>18.426198</v>
+        <v>18.426197999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1231.090000</v>
+        <v>1231.0899999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.164900</v>
+        <v>-90.164900000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>66345.112818</v>
+        <v>66345.112817999994</v>
       </c>
       <c r="AP18" s="1">
         <v>18.429198</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1239.030000</v>
+        <v>1239.03</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.079000</v>
+        <v>-102.07899999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>66355.813972</v>
+        <v>66355.813972000004</v>
       </c>
       <c r="AU18" s="1">
         <v>18.432171</v>
       </c>
       <c r="AV18" s="1">
-        <v>1249.050000</v>
+        <v>1249.05</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.483000</v>
+        <v>-121.483</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>66366.513701</v>
+        <v>66366.513701000003</v>
       </c>
       <c r="AZ18" s="1">
         <v>18.435143</v>
       </c>
       <c r="BA18" s="1">
-        <v>1257.510000</v>
+        <v>1257.51</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.082000</v>
+        <v>-139.08199999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>66377.858664</v>
+        <v>66377.858663999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>18.438294</v>
+        <v>18.438293999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1298.020000</v>
+        <v>1298.02</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.564000</v>
+        <v>-221.56399999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>66388.880265</v>
       </c>
       <c r="BJ18" s="1">
-        <v>18.441356</v>
+        <v>18.441355999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1368.920000</v>
+        <v>1368.92</v>
       </c>
       <c r="BL18" s="1">
-        <v>-358.577000</v>
+        <v>-358.577</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>66399.716363</v>
       </c>
       <c r="BO18" s="1">
-        <v>18.444366</v>
+        <v>18.444365999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1485.720000</v>
+        <v>1485.72</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.133000</v>
+        <v>-580.13300000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>66410.687867</v>
+        <v>66410.687867000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>18.447413</v>
+        <v>18.447413000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1620.330000</v>
+        <v>1620.33</v>
       </c>
       <c r="BV18" s="1">
-        <v>-829.163000</v>
+        <v>-829.16300000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>66421.507630</v>
+        <v>66421.507629999993</v>
       </c>
       <c r="BY18" s="1">
         <v>18.450419</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1774.220000</v>
+        <v>1774.22</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1097.660000</v>
+        <v>-1097.6600000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>66434.327280</v>
+        <v>66434.327279999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.453980</v>
+        <v>18.453980000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2195.020000</v>
+        <v>2195.02</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1745.030000</v>
+        <v>-1745.03</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>66260.982867</v>
+        <v>66260.982866999999</v>
       </c>
       <c r="B19" s="1">
-        <v>18.405829</v>
+        <v>18.405829000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1144.810000</v>
+        <v>1144.81</v>
       </c>
       <c r="D19" s="1">
-        <v>-261.218000</v>
+        <v>-261.21800000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>66271.671192</v>
+        <v>66271.671191999994</v>
       </c>
       <c r="G19" s="1">
-        <v>18.408798</v>
+        <v>18.408798000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1166.800000</v>
+        <v>1166.8</v>
       </c>
       <c r="I19" s="1">
-        <v>-219.275000</v>
+        <v>-219.27500000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>66282.098549</v>
+        <v>66282.098549000002</v>
       </c>
       <c r="L19" s="1">
-        <v>18.411694</v>
+        <v>18.411694000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1196.070000</v>
+        <v>1196.07</v>
       </c>
       <c r="N19" s="1">
-        <v>-152.916000</v>
+        <v>-152.916</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>66292.722856</v>
+        <v>66292.722855999993</v>
       </c>
       <c r="Q19" s="1">
         <v>18.414645</v>
       </c>
       <c r="R19" s="1">
-        <v>1204.050000</v>
+        <v>1204.05</v>
       </c>
       <c r="S19" s="1">
-        <v>-130.541000</v>
+        <v>-130.541</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>66303.207825</v>
+        <v>66303.207825000005</v>
       </c>
       <c r="V19" s="1">
         <v>18.417558</v>
       </c>
       <c r="W19" s="1">
-        <v>1211.630000</v>
+        <v>1211.6300000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-109.268000</v>
+        <v>-109.268</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>66313.653068</v>
       </c>
       <c r="AA19" s="1">
-        <v>18.420459</v>
+        <v>18.420459000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1219.270000</v>
+        <v>1219.27</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.742200</v>
+        <v>-91.742199999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>66324.139986</v>
+        <v>66324.139985999995</v>
       </c>
       <c r="AF19" s="1">
-        <v>18.423372</v>
+        <v>18.423372000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1224.050000</v>
+        <v>1224.05</v>
       </c>
       <c r="AH19" s="1">
-        <v>-87.038700</v>
+        <v>-87.038700000000006</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>66334.661616</v>
+        <v>66334.661615999998</v>
       </c>
       <c r="AK19" s="1">
         <v>18.426295</v>
       </c>
       <c r="AL19" s="1">
-        <v>1231.100000</v>
+        <v>1231.0999999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.177100</v>
+        <v>-90.177099999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>66345.474865</v>
+        <v>66345.474864999996</v>
       </c>
       <c r="AP19" s="1">
         <v>18.429299</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1239.020000</v>
+        <v>1239.02</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.070000</v>
+        <v>-102.07</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>66356.178037</v>
+        <v>66356.178037000005</v>
       </c>
       <c r="AU19" s="1">
-        <v>18.432272</v>
+        <v>18.432272000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1249.020000</v>
+        <v>1249.02</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.468000</v>
+        <v>-121.468</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>66367.231908</v>
+        <v>66367.231908000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>18.435342</v>
+        <v>18.435341999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1257.520000</v>
+        <v>1257.52</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.055000</v>
+        <v>-139.05500000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>66378.236616</v>
+        <v>66378.236615999995</v>
       </c>
       <c r="BE19" s="1">
         <v>18.438399</v>
       </c>
       <c r="BF19" s="1">
-        <v>1298.060000</v>
+        <v>1298.06</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.585000</v>
+        <v>-221.58500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>66389.254781</v>
+        <v>66389.254780999996</v>
       </c>
       <c r="BJ19" s="1">
-        <v>18.441460</v>
+        <v>18.441459999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1368.890000</v>
+        <v>1368.89</v>
       </c>
       <c r="BL19" s="1">
-        <v>-358.564000</v>
+        <v>-358.56400000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>66400.136969</v>
+        <v>66400.136968999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>18.444482</v>
+        <v>18.444482000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1485.660000</v>
+        <v>1485.66</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.083000</v>
+        <v>-580.08299999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>66411.408591</v>
+        <v>66411.408590999999</v>
       </c>
       <c r="BT19" s="1">
         <v>18.447613</v>
       </c>
       <c r="BU19" s="1">
-        <v>1620.120000</v>
+        <v>1620.12</v>
       </c>
       <c r="BV19" s="1">
-        <v>-829.076000</v>
+        <v>-829.07600000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>66422.236220</v>
+        <v>66422.236220000006</v>
       </c>
       <c r="BY19" s="1">
-        <v>18.450621</v>
+        <v>18.450621000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1774.260000</v>
+        <v>1774.26</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1097.590000</v>
+        <v>-1097.5899999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>66434.539521</v>
+        <v>66434.539520999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>18.454039</v>
+        <v>18.454039000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>2194.580000</v>
+        <v>2194.58</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1745.460000</v>
+        <v>-1745.46</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>66261.325937</v>
+        <v>66261.325937000001</v>
       </c>
       <c r="B20" s="1">
-        <v>18.405924</v>
+        <v>18.405923999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1144.560000</v>
+        <v>1144.56</v>
       </c>
       <c r="D20" s="1">
-        <v>-261.333000</v>
+        <v>-261.33300000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>66272.014387</v>
+        <v>66272.014387000003</v>
       </c>
       <c r="G20" s="1">
-        <v>18.408893</v>
+        <v>18.408892999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1166.950000</v>
+        <v>1166.95</v>
       </c>
       <c r="I20" s="1">
-        <v>-219.197000</v>
+        <v>-219.197</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>66282.518692</v>
+        <v>66282.518691999998</v>
       </c>
       <c r="L20" s="1">
         <v>18.411811</v>
       </c>
       <c r="M20" s="1">
-        <v>1195.690000</v>
+        <v>1195.69</v>
       </c>
       <c r="N20" s="1">
-        <v>-153.011000</v>
+        <v>-153.011</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>66293.011527</v>
+        <v>66293.011526999995</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.414725</v>
+        <v>18.414725000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1204.040000</v>
+        <v>1204.04</v>
       </c>
       <c r="S20" s="1">
-        <v>-130.505000</v>
+        <v>-130.505</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>66303.484057</v>
+        <v>66303.484056999994</v>
       </c>
       <c r="V20" s="1">
         <v>18.417634</v>
       </c>
       <c r="W20" s="1">
-        <v>1211.680000</v>
+        <v>1211.68</v>
       </c>
       <c r="X20" s="1">
-        <v>-109.307000</v>
+        <v>-109.307</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>66314.001229</v>
+        <v>66314.001229000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>18.420556</v>
+        <v>18.420556000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1219.250000</v>
+        <v>1219.25</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.777900</v>
+        <v>-91.777900000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>66324.482723</v>
+        <v>66324.482722999994</v>
       </c>
       <c r="AF20" s="1">
-        <v>18.423467</v>
+        <v>18.423466999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1223.910000</v>
+        <v>1223.9100000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.915500</v>
+        <v>-86.915499999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>66335.009279</v>
+        <v>66335.009279000005</v>
       </c>
       <c r="AK20" s="1">
-        <v>18.426391</v>
+        <v>18.426390999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1231.100000</v>
+        <v>1231.0999999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.174400</v>
+        <v>-90.174400000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>66346.193105</v>
+        <v>66346.193104999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>18.429498</v>
+        <v>18.429497999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1239.020000</v>
+        <v>1239.02</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.064000</v>
+        <v>-102.06399999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>66356.914098</v>
+        <v>66356.914097999994</v>
       </c>
       <c r="AU20" s="1">
-        <v>18.432476</v>
+        <v>18.432476000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1249.040000</v>
+        <v>1249.04</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.465000</v>
+        <v>-121.465</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>66367.591972</v>
+        <v>66367.591971999995</v>
       </c>
       <c r="AZ20" s="1">
-        <v>18.435442</v>
+        <v>18.435441999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1257.530000</v>
+        <v>1257.53</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.063000</v>
+        <v>-139.06299999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>66378.627463</v>
+        <v>66378.627462999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.438508</v>
+        <v>18.438507999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1298.050000</v>
+        <v>1298.05</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.607000</v>
+        <v>-221.607</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>66389.631207</v>
+        <v>66389.631206999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>18.441564</v>
       </c>
       <c r="BK20" s="1">
-        <v>1368.910000</v>
+        <v>1368.91</v>
       </c>
       <c r="BL20" s="1">
-        <v>-358.569000</v>
+        <v>-358.56900000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>66400.841288</v>
+        <v>66400.841287999996</v>
       </c>
       <c r="BO20" s="1">
         <v>18.444678</v>
       </c>
       <c r="BP20" s="1">
-        <v>1485.720000</v>
+        <v>1485.72</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.100000</v>
+        <v>-580.1</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>66411.532058</v>
+        <v>66411.532057999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>18.447648</v>
+        <v>18.447648000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1620.000000</v>
+        <v>1620</v>
       </c>
       <c r="BV20" s="1">
-        <v>-829.193000</v>
+        <v>-829.19299999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>66422.357306</v>
+        <v>66422.357306000005</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.450655</v>
+        <v>18.450655000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1774.210000</v>
+        <v>1774.21</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1097.600000</v>
+        <v>-1097.5999999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>66435.061771</v>
+        <v>66435.061770999993</v>
       </c>
       <c r="CD20" s="1">
-        <v>18.454184</v>
+        <v>18.454184000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2192.970000</v>
+        <v>2192.9699999999998</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1745.530000</v>
+        <v>-1745.53</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>66261.743239</v>
+        <v>66261.743239000003</v>
       </c>
       <c r="B21" s="1">
-        <v>18.406040</v>
+        <v>18.406040000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1144.740000</v>
+        <v>1144.74</v>
       </c>
       <c r="D21" s="1">
-        <v>-261.500000</v>
+        <v>-261.5</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>66272.444418</v>
+        <v>66272.444417999999</v>
       </c>
       <c r="G21" s="1">
-        <v>18.409012</v>
+        <v>18.409012000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1167.090000</v>
+        <v>1167.0899999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-219.774000</v>
+        <v>-219.774</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>66282.810310</v>
+        <v>66282.810310000001</v>
       </c>
       <c r="L21" s="1">
-        <v>18.411892</v>
+        <v>18.411892000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1195.970000</v>
+        <v>1195.97</v>
       </c>
       <c r="N21" s="1">
-        <v>-152.965000</v>
+        <v>-152.965</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>66293.359751</v>
+        <v>66293.359750999996</v>
       </c>
       <c r="Q21" s="1">
-        <v>18.414822</v>
+        <v>18.414822000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1203.990000</v>
+        <v>1203.99</v>
       </c>
       <c r="S21" s="1">
-        <v>-130.497000</v>
+        <v>-130.49700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>66303.828778</v>
+        <v>66303.828777999996</v>
       </c>
       <c r="V21" s="1">
-        <v>18.417730</v>
+        <v>18.417729999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1211.730000</v>
+        <v>1211.73</v>
       </c>
       <c r="X21" s="1">
-        <v>-109.402000</v>
+        <v>-109.402</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>66314.348938</v>
+        <v>66314.348937999996</v>
       </c>
       <c r="AA21" s="1">
         <v>18.420652</v>
       </c>
       <c r="AB21" s="1">
-        <v>1219.290000</v>
+        <v>1219.29</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.705800</v>
+        <v>-91.705799999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>66325.165181</v>
+        <v>66325.165181000004</v>
       </c>
       <c r="AF21" s="1">
-        <v>18.423657</v>
+        <v>18.423656999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1224.010000</v>
+        <v>1224.01</v>
       </c>
       <c r="AH21" s="1">
-        <v>-87.062300</v>
+        <v>-87.062299999999993</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>66335.707152</v>
+        <v>66335.707152000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>18.426585</v>
+        <v>18.426584999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1231.080000</v>
+        <v>1231.08</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.144700</v>
+        <v>-90.1447</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>66346.552706</v>
+        <v>66346.552706000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>18.429598</v>
+        <v>18.429597999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1239.040000</v>
+        <v>1239.04</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.047000</v>
+        <v>-102.047</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>66357.297009</v>
+        <v>66357.297009000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>18.432583</v>
+        <v>18.432583000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1249.030000</v>
+        <v>1249.03</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.479000</v>
+        <v>-121.479</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>66367.950086</v>
+        <v>66367.950085999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.435542</v>
+        <v>18.435542000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1257.540000</v>
+        <v>1257.54</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.075000</v>
+        <v>-139.07499999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>66379.302021</v>
+        <v>66379.302020999996</v>
       </c>
       <c r="BE21" s="1">
-        <v>18.438695</v>
+        <v>18.438694999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1298.040000</v>
+        <v>1298.04</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.579000</v>
+        <v>-221.57900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>66390.320151</v>
+        <v>66390.320151000007</v>
       </c>
       <c r="BJ21" s="1">
-        <v>18.441756</v>
+        <v>18.441756000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1368.930000</v>
+        <v>1368.93</v>
       </c>
       <c r="BL21" s="1">
-        <v>-358.581000</v>
+        <v>-358.58100000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>66400.952428</v>
+        <v>66400.952428000004</v>
       </c>
       <c r="BO21" s="1">
         <v>18.444709</v>
       </c>
       <c r="BP21" s="1">
-        <v>1485.670000</v>
+        <v>1485.67</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-580.098000</v>
+        <v>-580.09799999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>66411.967049</v>
+        <v>66411.967048999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.447769</v>
+        <v>18.447769000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1619.890000</v>
+        <v>1619.89</v>
       </c>
       <c r="BV21" s="1">
-        <v>-829.160000</v>
+        <v>-829.16</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>66422.805169</v>
+        <v>66422.805168999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>18.450779</v>
+        <v>18.450779000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1774.240000</v>
+        <v>1774.24</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1097.420000</v>
+        <v>-1097.42</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>66435.579100</v>
+        <v>66435.579100000003</v>
       </c>
       <c r="CD21" s="1">
         <v>18.454328</v>
       </c>
       <c r="CE21" s="1">
-        <v>2193.340000</v>
+        <v>2193.34</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1747.370000</v>
+        <v>-1747.37</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>66262.024996</v>
+        <v>66262.024995999993</v>
       </c>
       <c r="B22" s="1">
-        <v>18.406118</v>
+        <v>18.406117999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1144.630000</v>
+        <v>1144.6300000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-261.362000</v>
+        <v>-261.36200000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>66272.708787</v>
+        <v>66272.708786999996</v>
       </c>
       <c r="G22" s="1">
-        <v>18.409086</v>
+        <v>18.409085999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1166.910000</v>
+        <v>1166.9100000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-219.817000</v>
+        <v>-219.81700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>66283.154533</v>
+        <v>66283.154532999994</v>
       </c>
       <c r="L22" s="1">
         <v>18.411987</v>
       </c>
       <c r="M22" s="1">
-        <v>1195.980000</v>
+        <v>1195.98</v>
       </c>
       <c r="N22" s="1">
-        <v>-152.968000</v>
+        <v>-152.96799999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>66293.709399</v>
+        <v>66293.709398999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>18.414919</v>
+        <v>18.414919000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1204.020000</v>
+        <v>1204.02</v>
       </c>
       <c r="S22" s="1">
-        <v>-130.426000</v>
+        <v>-130.42599999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>66304.174488</v>
+        <v>66304.174488000004</v>
       </c>
       <c r="V22" s="1">
-        <v>18.417826</v>
+        <v>18.417826000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>1211.590000</v>
+        <v>1211.5899999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-109.188000</v>
+        <v>-109.188</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>66315.046329</v>
+        <v>66315.046329000004</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.420846</v>
+        <v>18.420846000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1219.330000</v>
+        <v>1219.33</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.720100</v>
+        <v>-91.720100000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>66325.513372</v>
+        <v>66325.513372000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>18.423754</v>
+        <v>18.423753999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1223.910000</v>
+        <v>1223.9100000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.928800</v>
+        <v>-86.928799999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>66336.058815</v>
+        <v>66336.058814999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>18.426683</v>
+        <v>18.426683000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1231.090000</v>
+        <v>1231.0899999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.199600</v>
+        <v>-90.199600000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>66346.914255</v>
+        <v>66346.914254999996</v>
       </c>
       <c r="AP22" s="1">
-        <v>18.429698</v>
+        <v>18.429697999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1239.050000</v>
+        <v>1239.05</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.056000</v>
+        <v>-102.056</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>66357.661073</v>
+        <v>66357.661072999996</v>
       </c>
       <c r="AU22" s="1">
-        <v>18.432684</v>
+        <v>18.432683999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1249.010000</v>
+        <v>1249.01</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.483000</v>
+        <v>-121.483</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>66368.623193</v>
+        <v>66368.623193000007</v>
       </c>
       <c r="AZ22" s="1">
-        <v>18.435729</v>
+        <v>18.435728999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1257.540000</v>
+        <v>1257.54</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.073000</v>
+        <v>-139.07300000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>66379.742502</v>
+        <v>66379.742501999994</v>
       </c>
       <c r="BE22" s="1">
         <v>18.438817</v>
       </c>
       <c r="BF22" s="1">
-        <v>1298.020000</v>
+        <v>1298.02</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.595000</v>
+        <v>-221.595</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>66390.757157</v>
       </c>
       <c r="BJ22" s="1">
-        <v>18.441877</v>
+        <v>18.441877000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1368.900000</v>
+        <v>1368.9</v>
       </c>
       <c r="BL22" s="1">
-        <v>-358.566000</v>
+        <v>-358.56599999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>66401.375516</v>
@@ -5816,28 +6232,28 @@
         <v>18.444827</v>
       </c>
       <c r="BP22" s="1">
-        <v>1485.660000</v>
+        <v>1485.66</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-580.130000</v>
+        <v>-580.13</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>66412.398571</v>
+        <v>66412.398570999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>18.447888</v>
+        <v>18.447887999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1619.870000</v>
+        <v>1619.87</v>
       </c>
       <c r="BV22" s="1">
-        <v>-829.065000</v>
+        <v>-829.06500000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>66423.237148</v>
@@ -5846,195 +6262,195 @@
         <v>18.450899</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1774.280000</v>
+        <v>1774.28</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1097.590000</v>
+        <v>-1097.5899999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>66436.098411</v>
+        <v>66436.098410999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>18.454472</v>
+        <v>18.454471999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2195.400000</v>
+        <v>2195.4</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1746.440000</v>
+        <v>-1746.44</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>66262.367199</v>
       </c>
       <c r="B23" s="1">
-        <v>18.406213</v>
+        <v>18.406213000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1144.720000</v>
+        <v>1144.72</v>
       </c>
       <c r="D23" s="1">
-        <v>-261.214000</v>
+        <v>-261.214</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>66273.078802</v>
+        <v>66273.078802000004</v>
       </c>
       <c r="G23" s="1">
-        <v>18.409189</v>
+        <v>18.409189000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1166.980000</v>
+        <v>1166.98</v>
       </c>
       <c r="I23" s="1">
-        <v>-219.685000</v>
+        <v>-219.685</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>66283.501236</v>
+        <v>66283.501235999996</v>
       </c>
       <c r="L23" s="1">
         <v>18.412084</v>
       </c>
       <c r="M23" s="1">
-        <v>1195.900000</v>
+        <v>1195.9000000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-152.963000</v>
+        <v>-152.96299999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>66294.404294</v>
+        <v>66294.404294000007</v>
       </c>
       <c r="Q23" s="1">
-        <v>18.415112</v>
+        <v>18.415112000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1204.040000</v>
+        <v>1204.04</v>
       </c>
       <c r="S23" s="1">
-        <v>-130.436000</v>
+        <v>-130.43600000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>66304.862935</v>
+        <v>66304.862934999997</v>
       </c>
       <c r="V23" s="1">
-        <v>18.418017</v>
+        <v>18.418016999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1211.580000</v>
+        <v>1211.58</v>
       </c>
       <c r="X23" s="1">
-        <v>-109.156000</v>
+        <v>-109.15600000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>66315.393001</v>
+        <v>66315.393001000004</v>
       </c>
       <c r="AA23" s="1">
-        <v>18.420943</v>
+        <v>18.420943000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1219.370000</v>
+        <v>1219.3699999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.753800</v>
+        <v>-91.753799999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>66325.858587</v>
+        <v>66325.858586999995</v>
       </c>
       <c r="AF23" s="1">
-        <v>18.423850</v>
+        <v>18.423850000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1223.980000</v>
+        <v>1223.98</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.901400</v>
+        <v>-86.901399999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>66336.406509</v>
+        <v>66336.406508999993</v>
       </c>
       <c r="AK23" s="1">
-        <v>18.426780</v>
+        <v>18.426780000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1231.100000</v>
+        <v>1231.0999999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.161300</v>
+        <v>-90.161299999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>66347.594302</v>
+        <v>66347.594301999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>18.429887</v>
+        <v>18.429887000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1239.040000</v>
+        <v>1239.04</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.057000</v>
+        <v>-102.057</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>66358.347041</v>
+        <v>66358.347041000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.432874</v>
+        <v>18.432874000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>1249.010000</v>
+        <v>1249.01</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.453000</v>
+        <v>-121.453</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>66369.024915</v>
+        <v>66369.024915000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>18.435840</v>
+        <v>18.435839999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1257.520000</v>
+        <v>1257.52</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.067000</v>
+        <v>-139.06700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>66380.101572</v>
@@ -6043,861 +6459,862 @@
         <v>18.438917</v>
       </c>
       <c r="BF23" s="1">
-        <v>1298.030000</v>
+        <v>1298.03</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.581000</v>
+        <v>-221.58099999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>66391.133589</v>
+        <v>66391.133589000005</v>
       </c>
       <c r="BJ23" s="1">
-        <v>18.441982</v>
+        <v>18.441981999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1368.910000</v>
+        <v>1368.91</v>
       </c>
       <c r="BL23" s="1">
-        <v>-358.590000</v>
+        <v>-358.59</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>66401.771815</v>
       </c>
       <c r="BO23" s="1">
-        <v>18.444937</v>
+        <v>18.444936999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1485.690000</v>
+        <v>1485.69</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.179000</v>
+        <v>-580.17899999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>66412.824137</v>
+        <v>66412.824137000003</v>
       </c>
       <c r="BT23" s="1">
         <v>18.448007</v>
       </c>
       <c r="BU23" s="1">
-        <v>1619.770000</v>
+        <v>1619.77</v>
       </c>
       <c r="BV23" s="1">
-        <v>-829.052000</v>
+        <v>-829.05200000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>66423.656267</v>
+        <v>66423.656266999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>18.451016</v>
+        <v>18.451015999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1774.200000</v>
+        <v>1774.2</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1097.670000</v>
+        <v>-1097.67</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>66436.614250</v>
+        <v>66436.614249999999</v>
       </c>
       <c r="CD23" s="1">
         <v>18.454615</v>
       </c>
       <c r="CE23" s="1">
-        <v>2195.190000</v>
+        <v>2195.19</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1746.770000</v>
+        <v>-1746.77</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>66262.709310</v>
+        <v>66262.709310000006</v>
       </c>
       <c r="B24" s="1">
-        <v>18.406308</v>
+        <v>18.406307999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1144.530000</v>
+        <v>1144.53</v>
       </c>
       <c r="D24" s="1">
-        <v>-261.443000</v>
+        <v>-261.44299999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>66273.757825</v>
+        <v>66273.757824999993</v>
       </c>
       <c r="G24" s="1">
-        <v>18.409377</v>
+        <v>18.409376999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1166.900000</v>
+        <v>1166.9000000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-218.805000</v>
+        <v>-218.80500000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>66284.195170</v>
+        <v>66284.195170000006</v>
       </c>
       <c r="L24" s="1">
-        <v>18.412276</v>
+        <v>18.412275999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.890000</v>
+        <v>1195.8900000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-152.863000</v>
+        <v>-152.863</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>66294.753521</v>
+        <v>66294.753521000006</v>
       </c>
       <c r="Q24" s="1">
-        <v>18.415209</v>
+        <v>18.415209000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1204.100000</v>
+        <v>1204.0999999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-130.527000</v>
+        <v>-130.52699999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>66305.206168</v>
+        <v>66305.206168000004</v>
       </c>
       <c r="V24" s="1">
-        <v>18.418113</v>
+        <v>18.418113000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>1211.620000</v>
+        <v>1211.6199999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-109.275000</v>
+        <v>-109.27500000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>66315.741689</v>
+        <v>66315.741689000002</v>
       </c>
       <c r="AA24" s="1">
         <v>18.421039</v>
       </c>
       <c r="AB24" s="1">
-        <v>1219.200000</v>
+        <v>1219.2</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.682200</v>
+        <v>-91.682199999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>66326.507882</v>
+        <v>66326.507882000005</v>
       </c>
       <c r="AF24" s="1">
-        <v>18.424030</v>
+        <v>18.424029999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1223.960000</v>
+        <v>1223.96</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.900500</v>
+        <v>-86.900499999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>66337.061263</v>
+        <v>66337.061262999996</v>
       </c>
       <c r="AK24" s="1">
-        <v>18.426961</v>
+        <v>18.426960999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1231.080000</v>
+        <v>1231.08</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.143300</v>
+        <v>-90.143299999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>66348.017370</v>
+        <v>66348.017370000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>18.430005</v>
+        <v>18.430005000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1239.040000</v>
+        <v>1239.04</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.082000</v>
+        <v>-102.08199999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>66358.780580</v>
+        <v>66358.780580000006</v>
       </c>
       <c r="AU24" s="1">
-        <v>18.432995</v>
+        <v>18.432994999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>1249.030000</v>
+        <v>1249.03</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.483000</v>
+        <v>-121.483</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>66369.411298</v>
+        <v>66369.411298000006</v>
       </c>
       <c r="AZ24" s="1">
         <v>18.435948</v>
       </c>
       <c r="BA24" s="1">
-        <v>1257.530000</v>
+        <v>1257.53</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.063000</v>
+        <v>-139.06299999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>66380.466628</v>
+        <v>66380.466627999995</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.439019</v>
+        <v>18.439018999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1298.040000</v>
+        <v>1298.04</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.587000</v>
+        <v>-221.58699999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>66391.507574</v>
+        <v>66391.507574000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>18.442085</v>
+        <v>18.442084999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1368.900000</v>
+        <v>1368.9</v>
       </c>
       <c r="BL24" s="1">
-        <v>-358.568000</v>
+        <v>-358.56799999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>66402.195368</v>
+        <v>66402.195368000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>18.445054</v>
+        <v>18.445053999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1485.680000</v>
+        <v>1485.68</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.125000</v>
+        <v>-580.125</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>66413.236809</v>
+        <v>66413.236808999995</v>
       </c>
       <c r="BT24" s="1">
         <v>18.448121</v>
       </c>
       <c r="BU24" s="1">
-        <v>1619.640000</v>
+        <v>1619.64</v>
       </c>
       <c r="BV24" s="1">
-        <v>-829.031000</v>
+        <v>-829.03099999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>66424.079882</v>
+        <v>66424.079882000005</v>
       </c>
       <c r="BY24" s="1">
-        <v>18.451133</v>
+        <v>18.451132999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1774.400000</v>
+        <v>1774.4</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1097.660000</v>
+        <v>-1097.6600000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>66437.165337</v>
+        <v>66437.165336999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>18.454768</v>
+        <v>18.454768000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2193.690000</v>
+        <v>2193.69</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1747.020000</v>
+        <v>-1747.02</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>66263.391470</v>
+        <v>66263.391470000002</v>
       </c>
       <c r="B25" s="1">
-        <v>18.406498</v>
+        <v>18.406497999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1144.690000</v>
+        <v>1144.69</v>
       </c>
       <c r="D25" s="1">
-        <v>-261.116000</v>
+        <v>-261.11599999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>66274.101056</v>
       </c>
       <c r="G25" s="1">
-        <v>18.409473</v>
+        <v>18.409472999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>1167.550000</v>
+        <v>1167.55</v>
       </c>
       <c r="I25" s="1">
-        <v>-220.133000</v>
+        <v>-220.13300000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>66284.544322</v>
+        <v>66284.544322000002</v>
       </c>
       <c r="L25" s="1">
-        <v>18.412373</v>
+        <v>18.412372999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.920000</v>
+        <v>1195.92</v>
       </c>
       <c r="N25" s="1">
-        <v>-153.043000</v>
+        <v>-153.04300000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>66295.102195</v>
+        <v>66295.102194999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>18.415306</v>
+        <v>18.415306000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1204.080000</v>
+        <v>1204.08</v>
       </c>
       <c r="S25" s="1">
-        <v>-130.490000</v>
+        <v>-130.49</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>66305.549398</v>
+        <v>66305.549398000003</v>
       </c>
       <c r="V25" s="1">
         <v>18.418208</v>
       </c>
       <c r="W25" s="1">
-        <v>1211.580000</v>
+        <v>1211.58</v>
       </c>
       <c r="X25" s="1">
-        <v>-109.380000</v>
+        <v>-109.38</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>66316.402396</v>
+        <v>66316.402396000005</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.421223</v>
+        <v>18.421223000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1219.270000</v>
+        <v>1219.27</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.758900</v>
+        <v>-91.758899999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>66326.884332</v>
+        <v>66326.884332000001</v>
       </c>
       <c r="AF25" s="1">
         <v>18.424135</v>
       </c>
       <c r="AG25" s="1">
-        <v>1224.060000</v>
+        <v>1224.06</v>
       </c>
       <c r="AH25" s="1">
-        <v>-87.011300</v>
+        <v>-87.011300000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>66337.452572</v>
+        <v>66337.452571999995</v>
       </c>
       <c r="AK25" s="1">
-        <v>18.427070</v>
+        <v>18.427070000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1231.110000</v>
+        <v>1231.1099999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.138000</v>
+        <v>-90.138000000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>66348.378447</v>
+        <v>66348.378446999996</v>
       </c>
       <c r="AP25" s="1">
-        <v>18.430105</v>
+        <v>18.430105000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1239.060000</v>
+        <v>1239.06</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.085000</v>
+        <v>-102.08499999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>66359.144648</v>
+        <v>66359.144648000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>18.433096</v>
+        <v>18.433095999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1249.050000</v>
+        <v>1249.05</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.503000</v>
+        <v>-121.503</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>66369.770897</v>
+        <v>66369.770896999995</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.436047</v>
+        <v>18.436046999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1257.520000</v>
+        <v>1257.52</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.075000</v>
+        <v>-139.07499999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>66380.886740</v>
+        <v>66380.886740000002</v>
       </c>
       <c r="BE25" s="1">
         <v>18.439135</v>
       </c>
       <c r="BF25" s="1">
-        <v>1298.030000</v>
+        <v>1298.03</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.591000</v>
+        <v>-221.59100000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>66391.933675</v>
+        <v>66391.933674999993</v>
       </c>
       <c r="BJ25" s="1">
         <v>18.442204</v>
       </c>
       <c r="BK25" s="1">
-        <v>1368.940000</v>
+        <v>1368.94</v>
       </c>
       <c r="BL25" s="1">
-        <v>-358.579000</v>
+        <v>-358.57900000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>66402.592167</v>
+        <v>66402.592166999995</v>
       </c>
       <c r="BO25" s="1">
-        <v>18.445164</v>
+        <v>18.445163999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1485.760000</v>
+        <v>1485.76</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.102000</v>
+        <v>-580.10199999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>66413.664361</v>
+        <v>66413.664361000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.448240</v>
+        <v>18.448239999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1619.580000</v>
+        <v>1619.58</v>
       </c>
       <c r="BV25" s="1">
-        <v>-828.915000</v>
+        <v>-828.91499999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>66424.505417</v>
+        <v>66424.505416999993</v>
       </c>
       <c r="BY25" s="1">
         <v>18.451252</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1774.350000</v>
+        <v>1774.35</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1097.650000</v>
+        <v>-1097.6500000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>66437.694040</v>
+        <v>66437.694040000002</v>
       </c>
       <c r="CD25" s="1">
         <v>18.454915</v>
       </c>
       <c r="CE25" s="1">
-        <v>2194.850000</v>
+        <v>2194.85</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1746.390000</v>
+        <v>-1746.39</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>66263.735693</v>
+        <v>66263.735692999995</v>
       </c>
       <c r="B26" s="1">
-        <v>18.406593</v>
+        <v>18.406593000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1144.520000</v>
+        <v>1144.52</v>
       </c>
       <c r="D26" s="1">
-        <v>-261.182000</v>
+        <v>-261.18200000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>66274.445807</v>
+        <v>66274.445806999996</v>
       </c>
       <c r="G26" s="1">
         <v>18.409568</v>
       </c>
       <c r="H26" s="1">
-        <v>1166.940000</v>
+        <v>1166.94</v>
       </c>
       <c r="I26" s="1">
-        <v>-219.896000</v>
+        <v>-219.89599999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>66284.887554</v>
+        <v>66284.887554000001</v>
       </c>
       <c r="L26" s="1">
-        <v>18.412469</v>
+        <v>18.412469000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1195.960000</v>
+        <v>1195.96</v>
       </c>
       <c r="N26" s="1">
-        <v>-152.700000</v>
+        <v>-152.69999999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>66295.759398</v>
+        <v>66295.759397999995</v>
       </c>
       <c r="Q26" s="1">
-        <v>18.415489</v>
+        <v>18.415489000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1203.990000</v>
+        <v>1203.99</v>
       </c>
       <c r="S26" s="1">
-        <v>-130.569000</v>
+        <v>-130.56899999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>66306.216021</v>
       </c>
       <c r="V26" s="1">
-        <v>18.418393</v>
+        <v>18.418392999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1211.440000</v>
+        <v>1211.44</v>
       </c>
       <c r="X26" s="1">
-        <v>-109.225000</v>
+        <v>-109.22499999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>66316.788247</v>
+        <v>66316.788247000004</v>
       </c>
       <c r="AA26" s="1">
-        <v>18.421330</v>
+        <v>18.421330000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1219.210000</v>
+        <v>1219.21</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.800000</v>
+        <v>-91.8</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>66327.227547</v>
+        <v>66327.227547000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>18.424230</v>
+        <v>18.424230000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1224.010000</v>
+        <v>1224.01</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.945800</v>
+        <v>-86.945800000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>66337.800299</v>
+        <v>66337.800298999995</v>
       </c>
       <c r="AK26" s="1">
-        <v>18.427167</v>
+        <v>18.427167000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1231.110000</v>
+        <v>1231.1099999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.156100</v>
+        <v>-90.156099999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>66348.739072</v>
+        <v>66348.739071999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>18.430205</v>
+        <v>18.430205000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1239.050000</v>
+        <v>1239.05</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.053000</v>
+        <v>-102.053</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>66359.565215</v>
+        <v>66359.565214999995</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.433213</v>
+        <v>18.433212999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1249.030000</v>
+        <v>1249.03</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.474000</v>
+        <v>-121.474</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>66370.192994</v>
+        <v>66370.192993999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.436165</v>
+        <v>18.436164999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1257.520000</v>
+        <v>1257.52</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.052000</v>
+        <v>-139.05199999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>66381.189826</v>
+        <v>66381.189826000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.439219</v>
+        <v>18.439219000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1298.050000</v>
+        <v>1298.05</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.580000</v>
+        <v>-221.58</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>66392.303683</v>
+        <v>66392.303683000006</v>
       </c>
       <c r="BJ26" s="1">
         <v>18.442307</v>
       </c>
       <c r="BK26" s="1">
-        <v>1368.930000</v>
+        <v>1368.93</v>
       </c>
       <c r="BL26" s="1">
-        <v>-358.578000</v>
+        <v>-358.57799999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>66403.015780</v>
+        <v>66403.015780000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>18.445282</v>
+        <v>18.445281999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1485.710000</v>
+        <v>1485.71</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-580.120000</v>
+        <v>-580.12</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>66414.077032</v>
+        <v>66414.077032000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>18.448355</v>
+        <v>18.448354999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1619.600000</v>
+        <v>1619.6</v>
       </c>
       <c r="BV26" s="1">
-        <v>-828.788000</v>
+        <v>-828.78800000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>66424.921560</v>
+        <v>66424.921560000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>18.451367</v>
+        <v>18.451367000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1774.210000</v>
+        <v>1774.21</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1097.640000</v>
+        <v>-1097.6400000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>66438.211899</v>
+        <v>66438.211899000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>18.455059</v>
+        <v>18.455058999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2193.000000</v>
+        <v>2193</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1745.270000</v>
+        <v>-1745.27</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>